--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_27.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_22_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>250395.3805719832</v>
+        <v>249696.4013906682</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3294423.900001757</v>
+        <v>3294423.900001759</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681859</v>
+        <v>590120.9651681856</v>
       </c>
     </row>
     <row r="9">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>120.4693833830704</v>
+        <v>88.26412090509632</v>
       </c>
       <c r="G11" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="H11" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.84531197871186</v>
+        <v>17.84531197871169</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>88.26412090509652</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="U12" t="n">
-        <v>53.80665702273347</v>
+        <v>120.46938338307</v>
       </c>
       <c r="V12" t="n">
-        <v>29.10430198823022</v>
+        <v>120.46938338307</v>
       </c>
       <c r="W12" t="n">
-        <v>120.4693833830704</v>
+        <v>103.5855099595938</v>
       </c>
       <c r="X12" t="n">
-        <v>1.657200557053358</v>
+        <v>1.657200557053187</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.8667223671611168</v>
+        <v>0.8667223671609463</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>15.41821348478692</v>
+        <v>41.36520975080134</v>
       </c>
       <c r="T13" t="n">
-        <v>24.51429709665603</v>
+        <v>24.51429709665586</v>
       </c>
       <c r="U13" t="n">
-        <v>83.23489997993599</v>
+        <v>120.46938338307</v>
       </c>
       <c r="V13" t="n">
-        <v>113.3134016846617</v>
+        <v>50.13192201551408</v>
       </c>
       <c r="W13" t="n">
-        <v>83.28814783599063</v>
+        <v>83.28814783599046</v>
       </c>
       <c r="X13" t="n">
-        <v>23.33593088088435</v>
+        <v>23.33593088088418</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.94424481634331</v>
+        <v>15.94424481634314</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>88.26412090509625</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>17.84531197871186</v>
+        <v>17.84531197871169</v>
       </c>
       <c r="U14" t="n">
-        <v>48.63102039758035</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="X14" t="n">
-        <v>39.63310050751608</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>21.8341295501654</v>
+        <v>21.83412955016523</v>
       </c>
       <c r="V15" t="n">
-        <v>29.10430198823022</v>
+        <v>83.40858096648184</v>
       </c>
       <c r="W15" t="n">
-        <v>47.18491769857513</v>
+        <v>120.46938338307</v>
       </c>
       <c r="X15" t="n">
-        <v>1.657200557053358</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Y15" t="n">
-        <v>106.1237155242245</v>
+        <v>0.8667223671609463</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>78.59969315393441</v>
+        <v>78.59969315393549</v>
       </c>
       <c r="T16" t="n">
-        <v>24.51429709665603</v>
+        <v>24.51429709665586</v>
       </c>
       <c r="U16" t="n">
-        <v>83.23489997993599</v>
+        <v>83.23489997993582</v>
       </c>
       <c r="V16" t="n">
-        <v>50.13192201551425</v>
+        <v>50.13192201551408</v>
       </c>
       <c r="W16" t="n">
-        <v>83.28814783599063</v>
+        <v>83.28814783599046</v>
       </c>
       <c r="X16" t="n">
-        <v>23.33593088088435</v>
+        <v>23.33593088088418</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.94424481634331</v>
+        <v>15.94424481634314</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.18318846887576</v>
+        <v>55.18318846887553</v>
       </c>
       <c r="C17" t="n">
-        <v>38.45187415642334</v>
+        <v>38.45187415642312</v>
       </c>
       <c r="D17" t="n">
-        <v>28.0715112320791</v>
+        <v>28.07151123207888</v>
       </c>
       <c r="E17" t="n">
-        <v>54.58481423276817</v>
+        <v>54.58481423276794</v>
       </c>
       <c r="F17" t="n">
-        <v>78.76064195802155</v>
+        <v>78.76064195802132</v>
       </c>
       <c r="G17" t="n">
-        <v>85.79261728707212</v>
+        <v>85.79261728707188</v>
       </c>
       <c r="H17" t="n">
-        <v>4.193812382378383</v>
+        <v>4.193812382378184</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>21.9968954780353</v>
+        <v>21.99689547803507</v>
       </c>
       <c r="X17" t="n">
-        <v>42.3283776086501</v>
+        <v>42.32837760864987</v>
       </c>
       <c r="Y17" t="n">
-        <v>58.15385022871652</v>
+        <v>58.15385022871629</v>
       </c>
     </row>
     <row r="18">
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>42.08961170066358</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="T18" t="n">
-        <v>106.1094328838084</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>118.1103690131191</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="J19" t="n">
-        <v>58.21681317514982</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,19 +2044,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>59.89355583796828</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.1831884688757</v>
+        <v>55.18318846887553</v>
       </c>
       <c r="C20" t="n">
-        <v>38.45187415642329</v>
+        <v>38.45187415642312</v>
       </c>
       <c r="D20" t="n">
-        <v>28.07151123207905</v>
+        <v>28.07151123207888</v>
       </c>
       <c r="E20" t="n">
-        <v>54.58481423276811</v>
+        <v>54.58481423276794</v>
       </c>
       <c r="F20" t="n">
-        <v>78.76064195802149</v>
+        <v>78.76064195802132</v>
       </c>
       <c r="G20" t="n">
-        <v>85.79261728707206</v>
+        <v>85.79261728707188</v>
       </c>
       <c r="H20" t="n">
-        <v>4.193812382378326</v>
+        <v>4.193812382378155</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>21.99689547803534</v>
+        <v>21.99689547803507</v>
       </c>
       <c r="X20" t="n">
-        <v>42.32837760865004</v>
+        <v>42.32837760864987</v>
       </c>
       <c r="Y20" t="n">
-        <v>58.15385022871646</v>
+        <v>58.15385022871629</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>28.98531973525174</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>28.98531973525135</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="X21" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>118.1103690131181</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>72.06468585899249</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>46.04568315412656</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.1831884688757</v>
+        <v>55.18318846887553</v>
       </c>
       <c r="C23" t="n">
-        <v>38.45187415642329</v>
+        <v>38.45187415642312</v>
       </c>
       <c r="D23" t="n">
-        <v>28.07151123207905</v>
+        <v>28.07151123207888</v>
       </c>
       <c r="E23" t="n">
-        <v>54.58481423276811</v>
+        <v>54.58481423276794</v>
       </c>
       <c r="F23" t="n">
-        <v>78.76064195802149</v>
+        <v>78.76064195802132</v>
       </c>
       <c r="G23" t="n">
-        <v>85.79261728707206</v>
+        <v>85.79261728707188</v>
       </c>
       <c r="H23" t="n">
-        <v>4.193812382378326</v>
+        <v>4.193812382378155</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>21.99689547803524</v>
+        <v>21.99689547803507</v>
       </c>
       <c r="X23" t="n">
-        <v>42.32837760865004</v>
+        <v>42.32837760864987</v>
       </c>
       <c r="Y23" t="n">
-        <v>58.15385022871646</v>
+        <v>58.15385022871629</v>
       </c>
     </row>
     <row r="24">
@@ -2394,19 +2394,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106.1094328838084</v>
+        <v>120.46938338307</v>
       </c>
       <c r="C24" t="n">
-        <v>120.4693833830704</v>
+        <v>28.98531973525134</v>
       </c>
       <c r="D24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2482,13 +2482,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>118.1103690131181</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>72.06468585899249</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.04568315412656</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.6708233438641</v>
+        <v>221.6708233438639</v>
       </c>
       <c r="C26" t="n">
-        <v>204.9395090314117</v>
+        <v>204.9395090314115</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5591461070675</v>
+        <v>194.5591461070672</v>
       </c>
       <c r="E26" t="n">
-        <v>221.0724491077565</v>
+        <v>221.0724491077563</v>
       </c>
       <c r="F26" t="n">
-        <v>245.2482768330099</v>
+        <v>245.2482768330097</v>
       </c>
       <c r="G26" t="n">
-        <v>252.2802521620605</v>
+        <v>252.2802521620602</v>
       </c>
       <c r="H26" t="n">
-        <v>170.6814472573668</v>
+        <v>170.6814472573666</v>
       </c>
       <c r="I26" t="n">
-        <v>22.78727869617325</v>
+        <v>22.78727869617302</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.76645030977482</v>
+        <v>31.76645030977459</v>
       </c>
       <c r="T26" t="n">
-        <v>58.60415438260586</v>
+        <v>58.60415438260563</v>
       </c>
       <c r="U26" t="n">
-        <v>89.38986280147435</v>
+        <v>89.38986280147412</v>
       </c>
       <c r="V26" t="n">
-        <v>166.4876348749884</v>
+        <v>166.4876348749882</v>
       </c>
       <c r="W26" t="n">
-        <v>188.4845303530237</v>
+        <v>188.4845303530234</v>
       </c>
       <c r="X26" t="n">
-        <v>208.8160124836385</v>
+        <v>208.8160124836382</v>
       </c>
       <c r="Y26" t="n">
-        <v>224.6414851037049</v>
+        <v>224.6414851037047</v>
       </c>
     </row>
     <row r="27">
@@ -2637,19 +2637,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7293247704514</v>
+        <v>52.54184283114581</v>
       </c>
       <c r="I27" t="n">
         <v>76.75987979576297</v>
@@ -2685,16 +2685,16 @@
         <v>163.7050004481646</v>
       </c>
       <c r="T27" t="n">
-        <v>127.8750651850846</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6385586015903</v>
+        <v>62.59297195405917</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>87.9437601024689</v>
       </c>
       <c r="X27" t="n">
         <v>204.4616296084783</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.03810484315289</v>
+        <v>18.03810484315267</v>
       </c>
       <c r="C28" t="n">
-        <v>5.290966283671423</v>
+        <v>5.290966283671196</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>5.60674402134962</v>
+        <v>5.606744021349392</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6775668401480388</v>
+        <v>0.6775668401478114</v>
       </c>
       <c r="S28" t="n">
-        <v>56.17705588868092</v>
+        <v>56.17705588868069</v>
       </c>
       <c r="T28" t="n">
-        <v>65.27313950055003</v>
+        <v>65.2731395005498</v>
       </c>
       <c r="U28" t="n">
-        <v>123.99374238383</v>
+        <v>123.9937423838298</v>
       </c>
       <c r="V28" t="n">
-        <v>90.89076441940824</v>
+        <v>90.89076441940801</v>
       </c>
       <c r="W28" t="n">
-        <v>124.0469902398846</v>
+        <v>124.0469902398844</v>
       </c>
       <c r="X28" t="n">
-        <v>64.09477328477834</v>
+        <v>64.09477328477811</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.70308722023731</v>
+        <v>56.70308722023708</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>221.6708233438641</v>
+        <v>221.6708233438639</v>
       </c>
       <c r="C29" t="n">
-        <v>204.9395090314117</v>
+        <v>204.9395090314115</v>
       </c>
       <c r="D29" t="n">
-        <v>194.5591461070675</v>
+        <v>194.5591461070672</v>
       </c>
       <c r="E29" t="n">
-        <v>221.0724491077565</v>
+        <v>221.0724491077563</v>
       </c>
       <c r="F29" t="n">
-        <v>245.2482768330099</v>
+        <v>245.2482768330097</v>
       </c>
       <c r="G29" t="n">
-        <v>252.2802521620605</v>
+        <v>252.2802521620603</v>
       </c>
       <c r="H29" t="n">
-        <v>170.6814472573668</v>
+        <v>170.6814472573665</v>
       </c>
       <c r="I29" t="n">
-        <v>22.78727869617325</v>
+        <v>22.78727869617302</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.76645030977482</v>
+        <v>31.7664503097746</v>
       </c>
       <c r="T29" t="n">
-        <v>58.60415438260586</v>
+        <v>58.60415438260563</v>
       </c>
       <c r="U29" t="n">
-        <v>89.38986280147435</v>
+        <v>89.38986280147412</v>
       </c>
       <c r="V29" t="n">
-        <v>166.4876348749884</v>
+        <v>166.4876348749882</v>
       </c>
       <c r="W29" t="n">
-        <v>188.4845303530237</v>
+        <v>188.4845303530234</v>
       </c>
       <c r="X29" t="n">
-        <v>208.8160124836385</v>
+        <v>208.8160124836382</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.6414851037049</v>
+        <v>224.6414851037047</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>111.9707959731229</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>52.54184283114536</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,13 +2916,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>163.7050004481646</v>
+        <v>1.659413800633468</v>
       </c>
       <c r="T30" t="n">
-        <v>197.2418405818404</v>
+        <v>35.19625393430922</v>
       </c>
       <c r="U30" t="n">
         <v>224.6385586015903</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.03810484315289</v>
+        <v>18.03810484315267</v>
       </c>
       <c r="C31" t="n">
-        <v>5.290966283671423</v>
+        <v>5.290966283671196</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>5.60674402134962</v>
+        <v>5.606744021349392</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6775668401480388</v>
+        <v>0.6775668401478114</v>
       </c>
       <c r="S31" t="n">
-        <v>56.17705588868092</v>
+        <v>56.17705588868069</v>
       </c>
       <c r="T31" t="n">
-        <v>65.27313950055003</v>
+        <v>65.2731395005498</v>
       </c>
       <c r="U31" t="n">
-        <v>123.99374238383</v>
+        <v>123.9937423838298</v>
       </c>
       <c r="V31" t="n">
-        <v>90.89076441940824</v>
+        <v>90.89076441940801</v>
       </c>
       <c r="W31" t="n">
-        <v>124.0469902398846</v>
+        <v>124.0469902398844</v>
       </c>
       <c r="X31" t="n">
-        <v>64.09477328477834</v>
+        <v>64.09477328477811</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.70308722023731</v>
+        <v>56.70308722023708</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>221.6708233438641</v>
+        <v>221.6708233438639</v>
       </c>
       <c r="C32" t="n">
-        <v>204.9395090314117</v>
+        <v>204.9395090314115</v>
       </c>
       <c r="D32" t="n">
-        <v>194.5591461070674</v>
+        <v>194.5591461070672</v>
       </c>
       <c r="E32" t="n">
-        <v>221.0724491077565</v>
+        <v>221.0724491077563</v>
       </c>
       <c r="F32" t="n">
-        <v>245.2482768330099</v>
+        <v>245.2482768330097</v>
       </c>
       <c r="G32" t="n">
-        <v>252.2802521620605</v>
+        <v>252.2802521620603</v>
       </c>
       <c r="H32" t="n">
-        <v>170.6814472573667</v>
+        <v>170.6814472573665</v>
       </c>
       <c r="I32" t="n">
-        <v>22.78727869617322</v>
+        <v>22.78727869617302</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.7664503097748</v>
+        <v>31.7664503097746</v>
       </c>
       <c r="T32" t="n">
-        <v>58.60415438260583</v>
+        <v>58.60415438260563</v>
       </c>
       <c r="U32" t="n">
-        <v>89.38986280147432</v>
+        <v>89.38986280147412</v>
       </c>
       <c r="V32" t="n">
-        <v>166.4876348749884</v>
+        <v>166.4876348749882</v>
       </c>
       <c r="W32" t="n">
-        <v>188.4845303530236</v>
+        <v>188.4845303530234</v>
       </c>
       <c r="X32" t="n">
-        <v>208.8160124836384</v>
+        <v>208.8160124836382</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.6414851037049</v>
+        <v>224.6414851037047</v>
       </c>
     </row>
     <row r="33">
@@ -3111,22 +3111,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>92.6788112507754</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7402095277565</v>
+        <v>129.3017226269083</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>163.7050004481646</v>
+        <v>1.659413800633468</v>
       </c>
       <c r="T33" t="n">
-        <v>35.19625393430942</v>
+        <v>35.19625393430922</v>
       </c>
       <c r="U33" t="n">
         <v>224.6385586015903</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.03810484315287</v>
+        <v>18.03810484315267</v>
       </c>
       <c r="C34" t="n">
-        <v>5.290966283671395</v>
+        <v>5.290966283671196</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.606744021349591</v>
+        <v>5.606744021349392</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6775668401480104</v>
+        <v>0.6775668401478114</v>
       </c>
       <c r="S34" t="n">
-        <v>56.17705588868089</v>
+        <v>56.17705588868069</v>
       </c>
       <c r="T34" t="n">
-        <v>65.27313950055</v>
+        <v>65.2731395005498</v>
       </c>
       <c r="U34" t="n">
-        <v>123.99374238383</v>
+        <v>123.9937423838298</v>
       </c>
       <c r="V34" t="n">
-        <v>90.89076441940821</v>
+        <v>90.89076441940801</v>
       </c>
       <c r="W34" t="n">
-        <v>124.0469902398846</v>
+        <v>124.0469902398844</v>
       </c>
       <c r="X34" t="n">
-        <v>64.09477328477831</v>
+        <v>64.09477328477811</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.70308722023728</v>
+        <v>56.70308722023708</v>
       </c>
     </row>
     <row r="35">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>74.26660100964708</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>197.2418405818404</v>
       </c>
       <c r="U36" t="n">
-        <v>194.696268022367</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.859114461280313</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.64534058921923</v>
+        <v>24.41060557890612</v>
       </c>
       <c r="T37" t="n">
         <v>33.50668919077523</v>
@@ -3481,7 +3481,7 @@
         <v>92.22729207405519</v>
       </c>
       <c r="V37" t="n">
-        <v>59.12431410963345</v>
+        <v>59.35904911994658</v>
       </c>
       <c r="W37" t="n">
         <v>92.28053993010982</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>189.9043730340893</v>
+        <v>189.9043730340892</v>
       </c>
       <c r="C38" t="n">
-        <v>173.1730587216369</v>
+        <v>173.1730587216368</v>
       </c>
       <c r="D38" t="n">
-        <v>162.7926957972927</v>
+        <v>162.7926957972926</v>
       </c>
       <c r="E38" t="n">
         <v>189.3059987979817</v>
       </c>
       <c r="F38" t="n">
-        <v>213.4818265232351</v>
+        <v>213.481826523235</v>
       </c>
       <c r="G38" t="n">
-        <v>220.5138018522857</v>
+        <v>220.5138018522856</v>
       </c>
       <c r="H38" t="n">
         <v>138.9149969475919</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>26.83770407283103</v>
+        <v>26.83770407283097</v>
       </c>
       <c r="U38" t="n">
-        <v>57.62341249169953</v>
+        <v>57.62341249169947</v>
       </c>
       <c r="V38" t="n">
-        <v>134.7211845652136</v>
+        <v>134.7211845652135</v>
       </c>
       <c r="W38" t="n">
         <v>156.7180800432488</v>
@@ -3569,7 +3569,7 @@
         <v>177.0495621738636</v>
       </c>
       <c r="Y38" t="n">
-        <v>192.8750347939301</v>
+        <v>192.87503479393</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>171.025583927401</v>
@@ -3591,16 +3591,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.7402095277565</v>
+        <v>67.62855427365542</v>
       </c>
       <c r="H39" t="n">
         <v>107.7293247704514</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>33.79940765428228</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T39" t="n">
-        <v>3.429803624534623</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U39" t="n">
         <v>224.6385586015903</v>
@@ -3645,10 +3645,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>10.64959265117247</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>9.859114461280228</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.41060557890609</v>
+        <v>24.6453405892198</v>
       </c>
       <c r="T40" t="n">
-        <v>33.5066891907752</v>
+        <v>33.50668919077514</v>
       </c>
       <c r="U40" t="n">
-        <v>92.22729207405516</v>
+        <v>92.2272920740551</v>
       </c>
       <c r="V40" t="n">
-        <v>59.35904911994673</v>
+        <v>59.12431410963336</v>
       </c>
       <c r="W40" t="n">
-        <v>92.2805399301098</v>
+        <v>92.28053993010974</v>
       </c>
       <c r="X40" t="n">
-        <v>32.32832297500352</v>
+        <v>32.32832297500346</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.93663691046248</v>
+        <v>24.93663691046243</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.9043730340893</v>
+        <v>189.9043730340892</v>
       </c>
       <c r="C41" t="n">
-        <v>173.1730587216369</v>
+        <v>173.1730587216368</v>
       </c>
       <c r="D41" t="n">
-        <v>162.7926957972927</v>
+        <v>162.7926957972926</v>
       </c>
       <c r="E41" t="n">
         <v>189.3059987979817</v>
       </c>
       <c r="F41" t="n">
-        <v>213.4818265232351</v>
+        <v>213.481826523235</v>
       </c>
       <c r="G41" t="n">
-        <v>220.5138018522857</v>
+        <v>220.5138018522856</v>
       </c>
       <c r="H41" t="n">
-        <v>138.914996947592</v>
+        <v>138.9149969475919</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.83770407283106</v>
+        <v>26.83770407283097</v>
       </c>
       <c r="U41" t="n">
-        <v>57.62341249169955</v>
+        <v>57.62341249169947</v>
       </c>
       <c r="V41" t="n">
-        <v>134.7211845652136</v>
+        <v>134.7211845652135</v>
       </c>
       <c r="W41" t="n">
-        <v>156.7180800432489</v>
+        <v>156.7180800432488</v>
       </c>
       <c r="X41" t="n">
-        <v>177.0495621738637</v>
+        <v>177.0495621738636</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.8750347939301</v>
+        <v>192.87503479393</v>
       </c>
     </row>
     <row r="42">
@@ -3831,10 +3831,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>76.75987979576297</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.12411314855666</v>
+        <v>57.00283007317721</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.5700966747009</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U42" t="n">
-        <v>30.8265216442846</v>
+        <v>224.6385586015903</v>
       </c>
       <c r="V42" t="n">
-        <v>38.09669408234942</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>56.17730979269433</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>10.64959265117247</v>
       </c>
       <c r="Y42" t="n">
         <v>203.671151418586</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.41060557890612</v>
+        <v>24.6453405892198</v>
       </c>
       <c r="T43" t="n">
-        <v>33.50668919077523</v>
+        <v>33.50668919077514</v>
       </c>
       <c r="U43" t="n">
-        <v>92.22729207405519</v>
+        <v>92.2272920740551</v>
       </c>
       <c r="V43" t="n">
-        <v>59.12431410963345</v>
+        <v>59.12431410963336</v>
       </c>
       <c r="W43" t="n">
-        <v>92.28053993010982</v>
+        <v>92.28053993010974</v>
       </c>
       <c r="X43" t="n">
-        <v>32.56305798531665</v>
+        <v>32.32832297500346</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.93663691046251</v>
+        <v>24.93663691046243</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>213.4818265232351</v>
       </c>
       <c r="G44" t="n">
-        <v>220.5138018522857</v>
+        <v>220.5138018522856</v>
       </c>
       <c r="H44" t="n">
-        <v>138.914996947592</v>
+        <v>138.9149969475919</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.83770407283106</v>
+        <v>26.83770407283103</v>
       </c>
       <c r="U44" t="n">
-        <v>57.62341249169955</v>
+        <v>57.62341249169953</v>
       </c>
       <c r="V44" t="n">
         <v>134.7211845652136</v>
       </c>
       <c r="W44" t="n">
-        <v>156.7180800432489</v>
+        <v>156.7180800432488</v>
       </c>
       <c r="X44" t="n">
-        <v>177.0495621738637</v>
+        <v>177.0495621738636</v>
       </c>
       <c r="Y44" t="n">
         <v>192.8750347939301</v>
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>72.32969830947593</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7402095277565</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>68.16483634384421</v>
       </c>
     </row>
     <row r="46">
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.41060557890612</v>
+        <v>24.41060557890609</v>
       </c>
       <c r="T46" t="n">
-        <v>33.50668919077523</v>
+        <v>33.74142420108852</v>
       </c>
       <c r="U46" t="n">
-        <v>92.46202708436829</v>
+        <v>92.22729207405516</v>
       </c>
       <c r="V46" t="n">
-        <v>59.12431410963345</v>
+        <v>59.12431410963342</v>
       </c>
       <c r="W46" t="n">
-        <v>92.28053993010982</v>
+        <v>92.2805399301098</v>
       </c>
       <c r="X46" t="n">
-        <v>32.32832297500354</v>
+        <v>32.32832297500352</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.93663691046251</v>
+        <v>24.93663691046248</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.6962881951015</v>
+        <v>342.1657200355307</v>
       </c>
       <c r="C11" t="n">
-        <v>374.6962881951015</v>
+        <v>342.1657200355307</v>
       </c>
       <c r="D11" t="n">
-        <v>374.6962881951015</v>
+        <v>342.1657200355307</v>
       </c>
       <c r="E11" t="n">
-        <v>374.6962881951015</v>
+        <v>342.1657200355307</v>
       </c>
       <c r="F11" t="n">
-        <v>253.0100423536162</v>
+        <v>253.0100423536152</v>
       </c>
       <c r="G11" t="n">
-        <v>131.3237965121309</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="H11" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I11" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J11" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K11" t="n">
-        <v>9.637550670645634</v>
+        <v>128.9022402198849</v>
       </c>
       <c r="L11" t="n">
-        <v>128.9022402198854</v>
+        <v>248.1669297691241</v>
       </c>
       <c r="M11" t="n">
-        <v>248.1669297691251</v>
+        <v>367.4316193183634</v>
       </c>
       <c r="N11" t="n">
-        <v>248.1669297691251</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="O11" t="n">
-        <v>367.4316193183648</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="P11" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="Q11" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R11" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S11" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="T11" t="n">
-        <v>463.8519658770172</v>
+        <v>463.8519658770156</v>
       </c>
       <c r="U11" t="n">
-        <v>463.8519658770172</v>
+        <v>463.8519658770156</v>
       </c>
       <c r="V11" t="n">
-        <v>374.6962881951015</v>
+        <v>463.8519658770156</v>
       </c>
       <c r="W11" t="n">
-        <v>374.6962881951015</v>
+        <v>463.8519658770156</v>
       </c>
       <c r="X11" t="n">
-        <v>374.6962881951015</v>
+        <v>342.1657200355307</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.6962881951015</v>
+        <v>342.1657200355307</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="C12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="D12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="E12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="F12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="G12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="H12" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I12" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J12" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K12" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="L12" t="n">
-        <v>124.0834648845625</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="M12" t="n">
-        <v>243.3481544338022</v>
+        <v>128.9022402198849</v>
       </c>
       <c r="N12" t="n">
-        <v>362.612843983042</v>
+        <v>248.1669297691241</v>
       </c>
       <c r="O12" t="n">
-        <v>481.8775335322817</v>
+        <v>367.4316193183634</v>
       </c>
       <c r="P12" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="Q12" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R12" t="n">
-        <v>403.97438893778</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S12" t="n">
-        <v>403.97438893778</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="T12" t="n">
-        <v>403.97438893778</v>
+        <v>360.191287690795</v>
       </c>
       <c r="U12" t="n">
-        <v>349.6242303289583</v>
+        <v>238.5050418493102</v>
       </c>
       <c r="V12" t="n">
-        <v>320.2259454923621</v>
+        <v>116.8187960078254</v>
       </c>
       <c r="W12" t="n">
-        <v>198.5396996508768</v>
+        <v>12.18696776581139</v>
       </c>
       <c r="X12" t="n">
-        <v>196.8657596942573</v>
+        <v>10.51302780919201</v>
       </c>
       <c r="Y12" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="C13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="D13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="E13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="F13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="G13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="H13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K13" t="n">
-        <v>22.30033025638124</v>
+        <v>22.3003302563812</v>
       </c>
       <c r="L13" t="n">
-        <v>94.30794362013583</v>
+        <v>94.3079436201358</v>
       </c>
       <c r="M13" t="n">
-        <v>180.8227753221922</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N13" t="n">
         <v>270.421739591371</v>
@@ -5224,25 +5224,25 @@
         <v>372.3134453971699</v>
       </c>
       <c r="S13" t="n">
-        <v>356.7394923822335</v>
+        <v>330.5304052448453</v>
       </c>
       <c r="T13" t="n">
-        <v>331.9775761229851</v>
+        <v>305.7684889855969</v>
       </c>
       <c r="U13" t="n">
-        <v>247.9019195775952</v>
+        <v>184.0822431441121</v>
       </c>
       <c r="V13" t="n">
-        <v>133.4439380779368</v>
+        <v>133.4439380779363</v>
       </c>
       <c r="W13" t="n">
-        <v>49.31449581936045</v>
+        <v>49.31449581936007</v>
       </c>
       <c r="X13" t="n">
-        <v>25.74284846493181</v>
+        <v>25.7428484649316</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>253.0100423536163</v>
+        <v>253.0100423536152</v>
       </c>
       <c r="C14" t="n">
-        <v>253.0100423536163</v>
+        <v>253.0100423536152</v>
       </c>
       <c r="D14" t="n">
-        <v>131.3237965121309</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="E14" t="n">
-        <v>131.3237965121309</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="F14" t="n">
-        <v>131.3237965121309</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="G14" t="n">
-        <v>131.3237965121309</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="H14" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I14" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J14" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K14" t="n">
-        <v>9.637550670645634</v>
+        <v>128.9022402198849</v>
       </c>
       <c r="L14" t="n">
-        <v>9.637550670645634</v>
+        <v>243.3481544338013</v>
       </c>
       <c r="M14" t="n">
-        <v>128.9022402198854</v>
+        <v>362.6128439830406</v>
       </c>
       <c r="N14" t="n">
-        <v>248.1669297691251</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="O14" t="n">
-        <v>367.4316193183648</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="P14" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="Q14" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R14" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S14" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="T14" t="n">
-        <v>463.8519658770172</v>
+        <v>463.8519658770155</v>
       </c>
       <c r="U14" t="n">
-        <v>414.7297230511784</v>
+        <v>463.8519658770155</v>
       </c>
       <c r="V14" t="n">
-        <v>414.7297230511784</v>
+        <v>463.8519658770155</v>
       </c>
       <c r="W14" t="n">
-        <v>414.7297230511784</v>
+        <v>342.1657200355306</v>
       </c>
       <c r="X14" t="n">
-        <v>374.6962881951016</v>
+        <v>342.1657200355306</v>
       </c>
       <c r="Y14" t="n">
-        <v>253.0100423536163</v>
+        <v>342.1657200355306</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="C15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="D15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="E15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="F15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="G15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="H15" t="n">
-        <v>87.17278278757793</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I15" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J15" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K15" t="n">
-        <v>128.9022402198854</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="L15" t="n">
-        <v>128.9022402198854</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="M15" t="n">
-        <v>128.9022402198854</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="N15" t="n">
-        <v>128.9022402198854</v>
+        <v>128.9022402198849</v>
       </c>
       <c r="O15" t="n">
-        <v>248.1669297691251</v>
+        <v>248.1669297691241</v>
       </c>
       <c r="P15" t="n">
-        <v>364.9358251887519</v>
+        <v>364.9358251887501</v>
       </c>
       <c r="Q15" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R15" t="n">
-        <v>403.97438893778</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S15" t="n">
-        <v>403.97438893778</v>
+        <v>360.191287690795</v>
       </c>
       <c r="T15" t="n">
-        <v>403.97438893778</v>
+        <v>360.191287690795</v>
       </c>
       <c r="U15" t="n">
-        <v>381.9197126244816</v>
+        <v>338.1366113774968</v>
       </c>
       <c r="V15" t="n">
-        <v>352.5214277878854</v>
+        <v>253.8855194921616</v>
       </c>
       <c r="W15" t="n">
-        <v>304.8598947590217</v>
+        <v>132.1992736506768</v>
       </c>
       <c r="X15" t="n">
-        <v>303.1859548024021</v>
+        <v>10.51302780919201</v>
       </c>
       <c r="Y15" t="n">
-        <v>195.9902825557107</v>
+        <v>9.637550670645597</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="C16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="D16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="E16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="F16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="G16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="H16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K16" t="n">
-        <v>22.30033025638124</v>
+        <v>22.3003302563812</v>
       </c>
       <c r="L16" t="n">
-        <v>94.30794362013583</v>
+        <v>94.3079436201358</v>
       </c>
       <c r="M16" t="n">
-        <v>180.8227753221922</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N16" t="n">
         <v>270.421739591371</v>
@@ -5461,25 +5461,25 @@
         <v>372.3134453971699</v>
       </c>
       <c r="S16" t="n">
-        <v>292.9198159487512</v>
+        <v>292.9198159487502</v>
       </c>
       <c r="T16" t="n">
-        <v>268.1578996895028</v>
+        <v>268.1578996895018</v>
       </c>
       <c r="U16" t="n">
-        <v>184.0822431441129</v>
+        <v>184.0822431441121</v>
       </c>
       <c r="V16" t="n">
-        <v>133.4439380779368</v>
+        <v>133.4439380779363</v>
       </c>
       <c r="W16" t="n">
-        <v>49.31449581936045</v>
+        <v>49.31449581936007</v>
       </c>
       <c r="X16" t="n">
-        <v>25.74284846493181</v>
+        <v>25.7428484649316</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.4206529421019</v>
+        <v>302.4206529421018</v>
       </c>
       <c r="C17" t="n">
-        <v>263.5803760164217</v>
+        <v>263.5803760164218</v>
       </c>
       <c r="D17" t="n">
-        <v>235.2253141658368</v>
+        <v>235.2253141658371</v>
       </c>
       <c r="E17" t="n">
-        <v>180.0891381731417</v>
+        <v>180.0891381731422</v>
       </c>
       <c r="F17" t="n">
-        <v>100.5329341751399</v>
+        <v>100.5329341751408</v>
       </c>
       <c r="G17" t="n">
-        <v>13.87372479426016</v>
+        <v>13.87372479425992</v>
       </c>
       <c r="H17" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I17" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J17" t="n">
-        <v>9.637550670645634</v>
+        <v>53.42792999998854</v>
       </c>
       <c r="K17" t="n">
-        <v>128.9022402198854</v>
+        <v>53.42792999998854</v>
       </c>
       <c r="L17" t="n">
-        <v>248.1669297691251</v>
+        <v>53.42792999998854</v>
       </c>
       <c r="M17" t="n">
-        <v>362.612843983042</v>
+        <v>63.51757711628836</v>
       </c>
       <c r="N17" t="n">
-        <v>362.612843983042</v>
+        <v>182.7822666655276</v>
       </c>
       <c r="O17" t="n">
-        <v>362.612843983042</v>
+        <v>302.0469562147669</v>
       </c>
       <c r="P17" t="n">
-        <v>481.8775335322817</v>
+        <v>421.3116457640062</v>
       </c>
       <c r="Q17" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R17" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S17" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="T17" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="U17" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="V17" t="n">
-        <v>481.8775335322816</v>
+        <v>481.8775335322801</v>
       </c>
       <c r="W17" t="n">
-        <v>459.6584471908319</v>
+        <v>459.6584471908306</v>
       </c>
       <c r="X17" t="n">
-        <v>416.9025102123971</v>
+        <v>416.9025102123964</v>
       </c>
       <c r="Y17" t="n">
-        <v>358.1612473551077</v>
+        <v>358.1612473551073</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
       <c r="C18" t="n">
-        <v>131.3237965121309</v>
+        <v>360.191287690795</v>
       </c>
       <c r="D18" t="n">
-        <v>131.3237965121309</v>
+        <v>360.191287690795</v>
       </c>
       <c r="E18" t="n">
-        <v>9.637550670645634</v>
+        <v>360.191287690795</v>
       </c>
       <c r="F18" t="n">
-        <v>9.637550670645634</v>
+        <v>317.6765283971955</v>
       </c>
       <c r="G18" t="n">
-        <v>9.637550670645634</v>
+        <v>195.9902825557106</v>
       </c>
       <c r="H18" t="n">
-        <v>9.637550670645634</v>
+        <v>87.17278278757789</v>
       </c>
       <c r="I18" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J18" t="n">
-        <v>9.637550670645634</v>
+        <v>43.50084578695252</v>
       </c>
       <c r="K18" t="n">
-        <v>9.637550670645634</v>
+        <v>162.7655353361918</v>
       </c>
       <c r="L18" t="n">
-        <v>9.637550670645634</v>
+        <v>162.7655353361918</v>
       </c>
       <c r="M18" t="n">
-        <v>128.9022402198854</v>
+        <v>162.7655353361918</v>
       </c>
       <c r="N18" t="n">
-        <v>248.1669297691251</v>
+        <v>162.7655353361918</v>
       </c>
       <c r="O18" t="n">
-        <v>367.4316193183648</v>
+        <v>245.6711356395108</v>
       </c>
       <c r="P18" t="n">
-        <v>481.8775335322817</v>
+        <v>364.9358251887501</v>
       </c>
       <c r="Q18" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R18" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S18" t="n">
-        <v>360.1912876907964</v>
+        <v>360.191287690795</v>
       </c>
       <c r="T18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
       <c r="U18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
       <c r="V18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
       <c r="W18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
       <c r="X18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
       <c r="Y18" t="n">
-        <v>253.0100423536162</v>
+        <v>360.191287690795</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="C19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="D19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="E19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="F19" t="n">
-        <v>68.44241246372627</v>
+        <v>253.0100423536152</v>
       </c>
       <c r="G19" t="n">
-        <v>68.44241246372627</v>
+        <v>253.0100423536152</v>
       </c>
       <c r="H19" t="n">
-        <v>68.44241246372627</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44241246372627</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J19" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K19" t="n">
-        <v>22.30033025638124</v>
+        <v>22.3003302563812</v>
       </c>
       <c r="L19" t="n">
-        <v>94.30794362013583</v>
+        <v>94.3079436201358</v>
       </c>
       <c r="M19" t="n">
-        <v>180.8227753221922</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N19" t="n">
         <v>270.421739591371</v>
@@ -5692,31 +5692,31 @@
         <v>372.3134453971699</v>
       </c>
       <c r="Q19" t="n">
-        <v>311.8149041466968</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="R19" t="n">
-        <v>311.8149041466968</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="S19" t="n">
-        <v>190.1286583052116</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="T19" t="n">
-        <v>190.1286583052116</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="U19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="V19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="W19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="X19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.44241246372627</v>
+        <v>372.3134453971699</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4206529421024</v>
+        <v>302.4206529421018</v>
       </c>
       <c r="C20" t="n">
-        <v>263.5803760164223</v>
+        <v>263.5803760164218</v>
       </c>
       <c r="D20" t="n">
-        <v>235.2253141658375</v>
+        <v>235.2253141658371</v>
       </c>
       <c r="E20" t="n">
-        <v>180.0891381731424</v>
+        <v>180.0891381731422</v>
       </c>
       <c r="F20" t="n">
         <v>100.5329341751408</v>
       </c>
       <c r="G20" t="n">
-        <v>13.87372479426011</v>
+        <v>13.8737247942599</v>
       </c>
       <c r="H20" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I20" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J20" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K20" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="L20" t="n">
-        <v>128.9022402198854</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="M20" t="n">
-        <v>248.1669297691251</v>
+        <v>63.51757711628836</v>
       </c>
       <c r="N20" t="n">
-        <v>367.4316193183648</v>
+        <v>182.7822666655276</v>
       </c>
       <c r="O20" t="n">
-        <v>481.8775335322817</v>
+        <v>302.0469562147669</v>
       </c>
       <c r="P20" t="n">
-        <v>481.8775335322817</v>
+        <v>421.3116457640062</v>
       </c>
       <c r="Q20" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R20" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S20" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="T20" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="U20" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="V20" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322801</v>
       </c>
       <c r="W20" t="n">
-        <v>459.6584471908319</v>
+        <v>459.6584471908306</v>
       </c>
       <c r="X20" t="n">
-        <v>416.9025102123975</v>
+        <v>416.9025102123964</v>
       </c>
       <c r="Y20" t="n">
-        <v>358.1612473551082</v>
+        <v>358.1612473551073</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="C21" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="D21" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="E21" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="F21" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="G21" t="n">
-        <v>38.91565141332416</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="H21" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I21" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J21" t="n">
-        <v>43.50084578695257</v>
+        <v>43.50084578695252</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7655353361923</v>
+        <v>43.50084578695252</v>
       </c>
       <c r="L21" t="n">
-        <v>162.7655353361923</v>
+        <v>43.50084578695252</v>
       </c>
       <c r="M21" t="n">
-        <v>162.7655353361923</v>
+        <v>43.50084578695252</v>
       </c>
       <c r="N21" t="n">
-        <v>245.6711356395122</v>
+        <v>126.4064460902715</v>
       </c>
       <c r="O21" t="n">
-        <v>364.9358251887519</v>
+        <v>245.6711356395108</v>
       </c>
       <c r="P21" t="n">
-        <v>364.9358251887519</v>
+        <v>364.9358251887501</v>
       </c>
       <c r="Q21" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R21" t="n">
-        <v>403.97438893778</v>
+        <v>403.9743889377782</v>
       </c>
       <c r="S21" t="n">
-        <v>403.97438893778</v>
+        <v>374.6962881951001</v>
       </c>
       <c r="T21" t="n">
-        <v>403.97438893778</v>
+        <v>374.6962881951001</v>
       </c>
       <c r="U21" t="n">
-        <v>403.97438893778</v>
+        <v>253.0100423536152</v>
       </c>
       <c r="V21" t="n">
-        <v>403.97438893778</v>
+        <v>131.3237965121304</v>
       </c>
       <c r="W21" t="n">
-        <v>403.97438893778</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="X21" t="n">
-        <v>282.2881430962947</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="Y21" t="n">
-        <v>160.6018972548094</v>
+        <v>9.637550670645597</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>250.6271995556846</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="C22" t="n">
-        <v>128.9409537141993</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="D22" t="n">
-        <v>9.637550670645634</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="E22" t="n">
-        <v>9.637550670645634</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="F22" t="n">
-        <v>9.637550670645634</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="G22" t="n">
-        <v>9.637550670645634</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="H22" t="n">
-        <v>9.637550670645634</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="I22" t="n">
-        <v>9.637550670645634</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="J22" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K22" t="n">
-        <v>22.30033025638124</v>
+        <v>22.3003302563812</v>
       </c>
       <c r="L22" t="n">
-        <v>94.30794362013583</v>
+        <v>94.3079436201358</v>
       </c>
       <c r="M22" t="n">
-        <v>180.8227753221922</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N22" t="n">
         <v>270.421739591371</v>
@@ -5938,22 +5938,22 @@
         <v>372.3134453971699</v>
       </c>
       <c r="T22" t="n">
-        <v>372.3134453971699</v>
+        <v>250.627199555685</v>
       </c>
       <c r="U22" t="n">
-        <v>372.3134453971699</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="V22" t="n">
-        <v>372.3134453971699</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="W22" t="n">
-        <v>372.3134453971699</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="X22" t="n">
-        <v>372.3134453971699</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="Y22" t="n">
-        <v>372.3134453971699</v>
+        <v>204.1164084909107</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4206529421027</v>
+        <v>302.4206529421015</v>
       </c>
       <c r="C23" t="n">
-        <v>263.5803760164226</v>
+        <v>263.5803760164216</v>
       </c>
       <c r="D23" t="n">
-        <v>235.225314165838</v>
+        <v>235.2253141658369</v>
       </c>
       <c r="E23" t="n">
-        <v>180.0891381731426</v>
+        <v>180.0891381731422</v>
       </c>
       <c r="F23" t="n">
-        <v>100.5329341751411</v>
+        <v>100.5329341751408</v>
       </c>
       <c r="G23" t="n">
-        <v>13.87372479426011</v>
+        <v>13.8737247942599</v>
       </c>
       <c r="H23" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I23" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J23" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K23" t="n">
-        <v>9.637550670645634</v>
+        <v>128.9022402198849</v>
       </c>
       <c r="L23" t="n">
-        <v>128.9022402198854</v>
+        <v>248.1669297691241</v>
       </c>
       <c r="M23" t="n">
-        <v>248.1669297691251</v>
+        <v>367.4316193183634</v>
       </c>
       <c r="N23" t="n">
-        <v>362.612843983042</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="O23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="P23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="Q23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="S23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="T23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="U23" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322797</v>
       </c>
       <c r="V23" t="n">
-        <v>481.8775335322819</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="W23" t="n">
-        <v>459.6584471908322</v>
+        <v>459.6584471908305</v>
       </c>
       <c r="X23" t="n">
-        <v>416.9025102123978</v>
+        <v>416.9025102123963</v>
       </c>
       <c r="Y23" t="n">
-        <v>358.1612473551085</v>
+        <v>358.1612473551071</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>374.6962881951015</v>
+        <v>38.91565141332372</v>
       </c>
       <c r="C24" t="n">
-        <v>253.0100423536162</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="D24" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="E24" t="n">
-        <v>131.3237965121309</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="F24" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="G24" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="H24" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="I24" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="J24" t="n">
-        <v>43.50084578695257</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7655353361923</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="L24" t="n">
-        <v>282.030224885432</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="M24" t="n">
-        <v>401.2949144346717</v>
+        <v>124.083464884562</v>
       </c>
       <c r="N24" t="n">
-        <v>401.2949144346717</v>
+        <v>243.3481544338013</v>
       </c>
       <c r="O24" t="n">
-        <v>401.2949144346717</v>
+        <v>362.6128439830406</v>
       </c>
       <c r="P24" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="Q24" t="n">
-        <v>481.8775335322817</v>
+        <v>481.8775335322799</v>
       </c>
       <c r="R24" t="n">
-        <v>481.8775335322817</v>
+        <v>403.9743889377782</v>
       </c>
       <c r="S24" t="n">
-        <v>481.8775335322817</v>
+        <v>403.9743889377782</v>
       </c>
       <c r="T24" t="n">
-        <v>481.8775335322817</v>
+        <v>403.9743889377782</v>
       </c>
       <c r="U24" t="n">
-        <v>481.8775335322817</v>
+        <v>403.9743889377782</v>
       </c>
       <c r="V24" t="n">
-        <v>481.8775335322817</v>
+        <v>403.9743889377782</v>
       </c>
       <c r="W24" t="n">
-        <v>481.8775335322817</v>
+        <v>282.2881430962934</v>
       </c>
       <c r="X24" t="n">
-        <v>481.8775335322817</v>
+        <v>160.6018972548085</v>
       </c>
       <c r="Y24" t="n">
-        <v>481.8775335322817</v>
+        <v>160.6018972548085</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>372.3134453971699</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="C25" t="n">
-        <v>372.3134453971699</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="D25" t="n">
-        <v>372.3134453971699</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="E25" t="n">
-        <v>250.6271995556846</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="F25" t="n">
-        <v>128.9409537141993</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="G25" t="n">
-        <v>9.637550670645634</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="H25" t="n">
-        <v>9.637550670645634</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="I25" t="n">
-        <v>9.637550670645634</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="J25" t="n">
-        <v>9.637550670645634</v>
+        <v>9.637550670645597</v>
       </c>
       <c r="K25" t="n">
-        <v>22.30033025638124</v>
+        <v>22.3003302563812</v>
       </c>
       <c r="L25" t="n">
-        <v>94.30794362013583</v>
+        <v>94.3079436201358</v>
       </c>
       <c r="M25" t="n">
-        <v>180.8227753221922</v>
+        <v>180.8227753221921</v>
       </c>
       <c r="N25" t="n">
         <v>270.421739591371</v>
@@ -6178,19 +6178,19 @@
         <v>372.3134453971699</v>
       </c>
       <c r="U25" t="n">
-        <v>372.3134453971699</v>
+        <v>325.8026543323955</v>
       </c>
       <c r="V25" t="n">
-        <v>372.3134453971699</v>
+        <v>204.1164084909107</v>
       </c>
       <c r="W25" t="n">
-        <v>372.3134453971699</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="X25" t="n">
-        <v>372.3134453971699</v>
+        <v>82.4301626494259</v>
       </c>
       <c r="Y25" t="n">
-        <v>372.3134453971699</v>
+        <v>82.4301626494259</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1376.381754553605</v>
+        <v>1376.381754553604</v>
       </c>
       <c r="C26" t="n">
-        <v>1169.372149471371</v>
+        <v>1169.37214947137</v>
       </c>
       <c r="D26" t="n">
-        <v>972.8477594642325</v>
+        <v>972.8477594642311</v>
       </c>
       <c r="E26" t="n">
-        <v>749.5422553149832</v>
+        <v>749.5422553149823</v>
       </c>
       <c r="F26" t="n">
-        <v>501.8167231604275</v>
+        <v>501.816723160427</v>
       </c>
       <c r="G26" t="n">
-        <v>246.9881856229928</v>
+        <v>246.9881856229922</v>
       </c>
       <c r="H26" t="n">
-        <v>74.58268334282437</v>
+        <v>74.58268334282407</v>
       </c>
       <c r="I26" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J26" t="n">
-        <v>95.35560944370948</v>
+        <v>255.7807402247652</v>
       </c>
       <c r="K26" t="n">
-        <v>443.6877600862467</v>
+        <v>443.6877600862468</v>
       </c>
       <c r="L26" t="n">
-        <v>728.7721122228618</v>
+        <v>889.1972430039177</v>
       </c>
       <c r="M26" t="n">
         <v>1221.620808487869</v>
@@ -6239,37 +6239,37 @@
         <v>1704.331290588274</v>
       </c>
       <c r="O26" t="n">
-        <v>2122.952988320794</v>
+        <v>2122.952988320795</v>
       </c>
       <c r="P26" t="n">
-        <v>2466.804122238224</v>
+        <v>2466.804122238225</v>
       </c>
       <c r="Q26" t="n">
-        <v>2578.261505718327</v>
+        <v>2527.370010006499</v>
       </c>
       <c r="R26" t="n">
-        <v>2578.261505718327</v>
+        <v>2578.261505718323</v>
       </c>
       <c r="S26" t="n">
-        <v>2546.174182173099</v>
+        <v>2546.174182173097</v>
       </c>
       <c r="T26" t="n">
-        <v>2486.978066635114</v>
+        <v>2486.978066635111</v>
       </c>
       <c r="U26" t="n">
-        <v>2396.685275926554</v>
+        <v>2396.685275926551</v>
       </c>
       <c r="V26" t="n">
-        <v>2228.51594777</v>
+        <v>2228.515947769998</v>
       </c>
       <c r="W26" t="n">
-        <v>2038.127533271996</v>
+        <v>2038.127533271994</v>
       </c>
       <c r="X26" t="n">
-        <v>1827.202268137008</v>
+        <v>1827.202268137006</v>
       </c>
       <c r="Y26" t="n">
-        <v>1600.291677123165</v>
+        <v>1600.291677123163</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>547.7823998329241</v>
+        <v>805.0797714473752</v>
       </c>
       <c r="C27" t="n">
-        <v>375.0292847547412</v>
+        <v>632.3266563691923</v>
       </c>
       <c r="D27" t="n">
-        <v>375.0292847547412</v>
+        <v>484.7383497281361</v>
       </c>
       <c r="E27" t="n">
-        <v>375.0292847547412</v>
+        <v>327.1288207309908</v>
       </c>
       <c r="F27" t="n">
-        <v>375.0292847547412</v>
+        <v>182.1730307476077</v>
       </c>
       <c r="G27" t="n">
-        <v>237.9179619994316</v>
+        <v>182.1730307476077</v>
       </c>
       <c r="H27" t="n">
         <v>129.1004622312988</v>
       </c>
       <c r="I27" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J27" t="n">
-        <v>85.42852523067347</v>
+        <v>85.4285252306734</v>
       </c>
       <c r="K27" t="n">
-        <v>269.911903483014</v>
+        <v>269.9119034830139</v>
       </c>
       <c r="L27" t="n">
-        <v>578.8221791694211</v>
+        <v>578.822179169421</v>
       </c>
       <c r="M27" t="n">
-        <v>992.1060946137763</v>
+        <v>992.1060946137762</v>
       </c>
       <c r="N27" t="n">
         <v>1431.727137538704</v>
@@ -6333,22 +6333,22 @@
         <v>1969.92038792761</v>
       </c>
       <c r="T27" t="n">
-        <v>1840.753655417424</v>
+        <v>1770.686205521711</v>
       </c>
       <c r="U27" t="n">
-        <v>1613.846020466323</v>
+        <v>1707.460981325692</v>
       </c>
       <c r="V27" t="n">
-        <v>1379.594776991923</v>
+        <v>1473.209737851292</v>
       </c>
       <c r="W27" t="n">
-        <v>1127.080285325257</v>
+        <v>1384.377656939708</v>
       </c>
       <c r="X27" t="n">
-        <v>920.5533867308341</v>
+        <v>1177.850758345285</v>
       </c>
       <c r="Y27" t="n">
-        <v>714.8249509544845</v>
+        <v>972.1223225689356</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.57301830125648</v>
+        <v>62.57301830125596</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="D28" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="E28" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="F28" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="G28" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="H28" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="I28" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J28" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="K28" t="n">
-        <v>64.22800970010213</v>
+        <v>64.22800970010208</v>
       </c>
       <c r="L28" t="n">
         <v>136.2356230638567</v>
       </c>
       <c r="M28" t="n">
-        <v>222.7504547659131</v>
+        <v>222.750454765913</v>
       </c>
       <c r="N28" t="n">
-        <v>312.3494190350919</v>
+        <v>406.2109540585108</v>
       </c>
       <c r="O28" t="n">
-        <v>540.1970987759098</v>
+        <v>634.0586337993288</v>
       </c>
       <c r="P28" t="n">
-        <v>574.6662556219464</v>
+        <v>668.5277906453655</v>
       </c>
       <c r="Q28" t="n">
-        <v>668.5277906453681</v>
+        <v>668.5277906453655</v>
       </c>
       <c r="R28" t="n">
-        <v>667.8433796957236</v>
+        <v>667.8433796957212</v>
       </c>
       <c r="S28" t="n">
-        <v>611.098878798066</v>
+        <v>611.0988787980639</v>
       </c>
       <c r="T28" t="n">
-        <v>545.1664146560963</v>
+        <v>545.1664146560944</v>
       </c>
       <c r="U28" t="n">
-        <v>419.9202102279852</v>
+        <v>419.9202102279835</v>
       </c>
       <c r="V28" t="n">
-        <v>328.111357279088</v>
+        <v>328.1113572790865</v>
       </c>
       <c r="W28" t="n">
-        <v>202.8113671377904</v>
+        <v>202.8113671377892</v>
       </c>
       <c r="X28" t="n">
-        <v>138.0691719006405</v>
+        <v>138.0691719006396</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.79332622363314</v>
+        <v>80.79332622363239</v>
       </c>
     </row>
     <row r="29">
@@ -6443,67 +6443,67 @@
         <v>1169.372149471371</v>
       </c>
       <c r="D29" t="n">
-        <v>972.8477594642318</v>
+        <v>972.847759464232</v>
       </c>
       <c r="E29" t="n">
-        <v>749.5422553149828</v>
+        <v>749.5422553149831</v>
       </c>
       <c r="F29" t="n">
-        <v>501.8167231604273</v>
+        <v>501.8167231604277</v>
       </c>
       <c r="G29" t="n">
-        <v>246.9881856229927</v>
+        <v>246.9881856229931</v>
       </c>
       <c r="H29" t="n">
-        <v>74.58268334282437</v>
+        <v>74.58268334282407</v>
       </c>
       <c r="I29" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J29" t="n">
-        <v>95.35560944370948</v>
+        <v>253.7864863057569</v>
       </c>
       <c r="K29" t="n">
-        <v>441.6935061672421</v>
+        <v>602.1186369482944</v>
       </c>
       <c r="L29" t="n">
-        <v>726.7778583038572</v>
+        <v>1047.628119865965</v>
       </c>
       <c r="M29" t="n">
-        <v>1219.626554568864</v>
+        <v>1380.051685349917</v>
       </c>
       <c r="N29" t="n">
-        <v>1702.337036669269</v>
+        <v>1702.337036669266</v>
       </c>
       <c r="O29" t="n">
-        <v>2120.95873440179</v>
+        <v>2120.958734401787</v>
       </c>
       <c r="P29" t="n">
-        <v>2304.384737538164</v>
+        <v>2464.809868319217</v>
       </c>
       <c r="Q29" t="n">
-        <v>2525.375756087494</v>
+        <v>2525.375756087491</v>
       </c>
       <c r="R29" t="n">
-        <v>2578.261505718327</v>
+        <v>2578.261505718323</v>
       </c>
       <c r="S29" t="n">
-        <v>2546.1741821731</v>
+        <v>2546.174182173097</v>
       </c>
       <c r="T29" t="n">
-        <v>2486.978066635114</v>
+        <v>2486.978066635112</v>
       </c>
       <c r="U29" t="n">
-        <v>2396.685275926554</v>
+        <v>2396.685275926552</v>
       </c>
       <c r="V29" t="n">
-        <v>2228.51594777</v>
+        <v>2228.515947769999</v>
       </c>
       <c r="W29" t="n">
-        <v>2038.127533271996</v>
+        <v>2038.127533271995</v>
       </c>
       <c r="X29" t="n">
-        <v>1827.202268137008</v>
+        <v>1827.202268137007</v>
       </c>
       <c r="Y29" t="n">
         <v>1600.291677123164</v>
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>399.8118053427097</v>
+        <v>805.0797714473747</v>
       </c>
       <c r="C30" t="n">
-        <v>286.7099912284441</v>
+        <v>632.3266563691918</v>
       </c>
       <c r="D30" t="n">
-        <v>286.7099912284441</v>
+        <v>484.7383497281357</v>
       </c>
       <c r="E30" t="n">
-        <v>129.1004622312988</v>
+        <v>327.1288207309904</v>
       </c>
       <c r="F30" t="n">
-        <v>129.1004622312988</v>
+        <v>182.1730307476072</v>
       </c>
       <c r="G30" t="n">
         <v>129.1004622312988</v>
@@ -6537,19 +6537,19 @@
         <v>129.1004622312988</v>
       </c>
       <c r="I30" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J30" t="n">
-        <v>85.42852523067347</v>
+        <v>85.4285252306734</v>
       </c>
       <c r="K30" t="n">
-        <v>269.911903483014</v>
+        <v>269.9119034830139</v>
       </c>
       <c r="L30" t="n">
-        <v>578.8221791694211</v>
+        <v>578.822179169421</v>
       </c>
       <c r="M30" t="n">
-        <v>992.1060946137763</v>
+        <v>992.1060946137762</v>
       </c>
       <c r="N30" t="n">
         <v>1431.727137538704</v>
@@ -6564,28 +6564,28 @@
         <v>2135.278974238888</v>
       </c>
       <c r="R30" t="n">
-        <v>2057.375829644386</v>
+        <v>2135.278974238888</v>
       </c>
       <c r="S30" t="n">
-        <v>1892.017243333109</v>
+        <v>2133.602798682692</v>
       </c>
       <c r="T30" t="n">
-        <v>1692.783060927209</v>
+        <v>2098.051027031875</v>
       </c>
       <c r="U30" t="n">
-        <v>1465.875425976108</v>
+        <v>1871.143392080773</v>
       </c>
       <c r="V30" t="n">
-        <v>1231.624182501709</v>
+        <v>1636.892148606374</v>
       </c>
       <c r="W30" t="n">
-        <v>979.1096908350422</v>
+        <v>1384.377656939707</v>
       </c>
       <c r="X30" t="n">
-        <v>772.5827922406197</v>
+        <v>1177.850758345285</v>
       </c>
       <c r="Y30" t="n">
-        <v>566.8543564642702</v>
+        <v>972.1223225689351</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62.57301830125648</v>
+        <v>62.57301830125596</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="D31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="E31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="F31" t="n">
-        <v>57.22860791370959</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="G31" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="H31" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="I31" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J31" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="K31" t="n">
-        <v>64.22800970010213</v>
+        <v>64.22800970010208</v>
       </c>
       <c r="L31" t="n">
         <v>136.2356230638567</v>
       </c>
       <c r="M31" t="n">
-        <v>222.7504547659131</v>
+        <v>222.750454765913</v>
       </c>
       <c r="N31" t="n">
-        <v>312.3494190350919</v>
+        <v>472.7745498161477</v>
       </c>
       <c r="O31" t="n">
-        <v>379.7719679948542</v>
+        <v>540.1970987759099</v>
       </c>
       <c r="P31" t="n">
-        <v>567.3972801439011</v>
+        <v>574.6662556219466</v>
       </c>
       <c r="Q31" t="n">
-        <v>668.5277906453681</v>
+        <v>668.5277906453655</v>
       </c>
       <c r="R31" t="n">
-        <v>667.8433796957236</v>
+        <v>667.8433796957212</v>
       </c>
       <c r="S31" t="n">
-        <v>611.098878798066</v>
+        <v>611.0988787980639</v>
       </c>
       <c r="T31" t="n">
-        <v>545.1664146560963</v>
+        <v>545.1664146560944</v>
       </c>
       <c r="U31" t="n">
-        <v>419.9202102279852</v>
+        <v>419.9202102279835</v>
       </c>
       <c r="V31" t="n">
-        <v>328.111357279088</v>
+        <v>328.1113572790865</v>
       </c>
       <c r="W31" t="n">
-        <v>202.8113671377904</v>
+        <v>202.8113671377892</v>
       </c>
       <c r="X31" t="n">
-        <v>138.0691719006405</v>
+        <v>138.0691719006396</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.79332622363314</v>
+        <v>80.79332622363239</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1376.381754553605</v>
+        <v>1376.381754553604</v>
       </c>
       <c r="C32" t="n">
-        <v>1169.372149471371</v>
+        <v>1169.37214947137</v>
       </c>
       <c r="D32" t="n">
-        <v>972.847759464232</v>
+        <v>972.8477594642316</v>
       </c>
       <c r="E32" t="n">
-        <v>749.5422553149829</v>
+        <v>749.5422553149825</v>
       </c>
       <c r="F32" t="n">
         <v>501.8167231604273</v>
       </c>
       <c r="G32" t="n">
-        <v>246.9881856229927</v>
+        <v>246.9881856229923</v>
       </c>
       <c r="H32" t="n">
-        <v>74.58268334282434</v>
+        <v>74.58268334282407</v>
       </c>
       <c r="I32" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J32" t="n">
-        <v>255.7807402247651</v>
+        <v>255.7807402247652</v>
       </c>
       <c r="K32" t="n">
-        <v>604.1128908673023</v>
+        <v>443.6877600862468</v>
       </c>
       <c r="L32" t="n">
-        <v>1049.622373784973</v>
+        <v>889.1972430039177</v>
       </c>
       <c r="M32" t="n">
-        <v>1382.045939268924</v>
+        <v>1221.620808487869</v>
       </c>
       <c r="N32" t="n">
         <v>1704.331290588274</v>
       </c>
       <c r="O32" t="n">
-        <v>2122.952988320795</v>
+        <v>2120.958734401787</v>
       </c>
       <c r="P32" t="n">
-        <v>2466.804122238224</v>
+        <v>2464.809868319217</v>
       </c>
       <c r="Q32" t="n">
-        <v>2527.370010006498</v>
+        <v>2525.375756087491</v>
       </c>
       <c r="R32" t="n">
-        <v>2578.261505718327</v>
+        <v>2578.261505718323</v>
       </c>
       <c r="S32" t="n">
-        <v>2546.1741821731</v>
+        <v>2546.174182173097</v>
       </c>
       <c r="T32" t="n">
-        <v>2486.978066635114</v>
+        <v>2486.978066635111</v>
       </c>
       <c r="U32" t="n">
-        <v>2396.685275926554</v>
+        <v>2396.685275926552</v>
       </c>
       <c r="V32" t="n">
-        <v>2228.51594777</v>
+        <v>2228.515947769998</v>
       </c>
       <c r="W32" t="n">
-        <v>2038.127533271996</v>
+        <v>2038.127533271995</v>
       </c>
       <c r="X32" t="n">
-        <v>1827.202268137008</v>
+        <v>1827.202268137006</v>
       </c>
       <c r="Y32" t="n">
-        <v>1600.291677123164</v>
+        <v>1600.291677123163</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>641.3973606922931</v>
+        <v>805.0797714473747</v>
       </c>
       <c r="C33" t="n">
-        <v>468.6442456141103</v>
+        <v>632.3266563691918</v>
       </c>
       <c r="D33" t="n">
-        <v>468.6442456141103</v>
+        <v>484.7383497281357</v>
       </c>
       <c r="E33" t="n">
-        <v>375.0292847547412</v>
+        <v>327.1288207309904</v>
       </c>
       <c r="F33" t="n">
-        <v>375.0292847547412</v>
+        <v>182.1730307476072</v>
       </c>
       <c r="G33" t="n">
-        <v>237.9179619994316</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="H33" t="n">
-        <v>129.1004622312988</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="I33" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J33" t="n">
-        <v>85.42852523067347</v>
+        <v>85.4285252306734</v>
       </c>
       <c r="K33" t="n">
-        <v>269.911903483014</v>
+        <v>269.9119034830139</v>
       </c>
       <c r="L33" t="n">
-        <v>578.8221791694211</v>
+        <v>578.822179169421</v>
       </c>
       <c r="M33" t="n">
-        <v>992.1060946137763</v>
+        <v>992.1060946137762</v>
       </c>
       <c r="N33" t="n">
         <v>1431.727137538704</v>
@@ -6804,25 +6804,25 @@
         <v>2135.278974238888</v>
       </c>
       <c r="S33" t="n">
-        <v>1969.92038792761</v>
+        <v>2133.602798682692</v>
       </c>
       <c r="T33" t="n">
-        <v>1934.368616276793</v>
+        <v>2098.051027031875</v>
       </c>
       <c r="U33" t="n">
-        <v>1707.460981325692</v>
+        <v>1871.143392080773</v>
       </c>
       <c r="V33" t="n">
-        <v>1473.209737851292</v>
+        <v>1636.892148606374</v>
       </c>
       <c r="W33" t="n">
-        <v>1220.695246184626</v>
+        <v>1384.377656939707</v>
       </c>
       <c r="X33" t="n">
-        <v>1014.168347590203</v>
+        <v>1177.850758345285</v>
       </c>
       <c r="Y33" t="n">
-        <v>808.4399118138535</v>
+        <v>972.1223225689351</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.57301830125643</v>
+        <v>62.57301830125596</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="D34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="E34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="F34" t="n">
-        <v>57.22860791370956</v>
+        <v>57.22860791370929</v>
       </c>
       <c r="G34" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="H34" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="I34" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="J34" t="n">
-        <v>51.56523011436654</v>
+        <v>51.56523011436647</v>
       </c>
       <c r="K34" t="n">
-        <v>64.22800970010213</v>
+        <v>64.22800970010208</v>
       </c>
       <c r="L34" t="n">
         <v>136.2356230638567</v>
       </c>
       <c r="M34" t="n">
-        <v>222.7504547659131</v>
+        <v>383.1755855469688</v>
       </c>
       <c r="N34" t="n">
-        <v>312.3494190350919</v>
+        <v>472.7745498161477</v>
       </c>
       <c r="O34" t="n">
-        <v>379.7719679948542</v>
+        <v>540.1970987759099</v>
       </c>
       <c r="P34" t="n">
-        <v>574.6662556219464</v>
+        <v>574.6662556219466</v>
       </c>
       <c r="Q34" t="n">
-        <v>668.5277906453676</v>
+        <v>668.5277906453655</v>
       </c>
       <c r="R34" t="n">
-        <v>667.8433796957232</v>
+        <v>667.8433796957212</v>
       </c>
       <c r="S34" t="n">
-        <v>611.0988787980658</v>
+        <v>611.0988787980639</v>
       </c>
       <c r="T34" t="n">
-        <v>545.1664146560961</v>
+        <v>545.1664146560944</v>
       </c>
       <c r="U34" t="n">
-        <v>419.920210227985</v>
+        <v>419.9202102279835</v>
       </c>
       <c r="V34" t="n">
-        <v>328.1113572790878</v>
+        <v>328.1113572790865</v>
       </c>
       <c r="W34" t="n">
-        <v>202.8113671377902</v>
+        <v>202.8113671377892</v>
       </c>
       <c r="X34" t="n">
-        <v>138.0691719006404</v>
+        <v>138.0691719006396</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.79332622363306</v>
+        <v>80.79332622363239</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1151.20280938314</v>
+        <v>1151.202809383138</v>
       </c>
       <c r="C35" t="n">
-        <v>976.2805278461326</v>
+        <v>976.2805278461312</v>
       </c>
       <c r="D35" t="n">
-        <v>811.8434613842207</v>
+        <v>811.8434613842194</v>
       </c>
       <c r="E35" t="n">
-        <v>620.6252807801988</v>
+        <v>620.6252807801974</v>
       </c>
       <c r="F35" t="n">
-        <v>404.9870721708703</v>
+        <v>404.9870721708689</v>
       </c>
       <c r="G35" t="n">
-        <v>182.2458581786623</v>
+        <v>182.2458581786622</v>
       </c>
       <c r="H35" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I35" t="n">
-        <v>50.81705934118642</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J35" t="n">
-        <v>190.2867735032914</v>
+        <v>85.71805877306382</v>
       </c>
       <c r="K35" t="n">
-        <v>378.1937933647731</v>
+        <v>273.6250786345454</v>
       </c>
       <c r="L35" t="n">
-        <v>663.2781455013882</v>
+        <v>558.7094307711606</v>
       </c>
       <c r="M35" t="n">
-        <v>995.7017109853394</v>
+        <v>891.1329962551118</v>
       </c>
       <c r="N35" t="n">
-        <v>1317.987062304689</v>
+        <v>1213.418347574461</v>
       </c>
       <c r="O35" t="n">
-        <v>1768.057545843887</v>
+        <v>1660.518164693663</v>
       </c>
       <c r="P35" t="n">
-        <v>1951.483548980261</v>
+        <v>1843.944167830037</v>
       </c>
       <c r="Q35" t="n">
-        <v>2012.049436748535</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R35" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="S35" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="T35" t="n">
-        <v>2069.275180193286</v>
+        <v>2069.275180193285</v>
       </c>
       <c r="U35" t="n">
-        <v>2011.069713029953</v>
+        <v>2011.069713029952</v>
       </c>
       <c r="V35" t="n">
-        <v>1874.987708418626</v>
+        <v>1874.987708418625</v>
       </c>
       <c r="W35" t="n">
-        <v>1716.68661746585</v>
+        <v>1716.686617465848</v>
       </c>
       <c r="X35" t="n">
-        <v>1537.848675876088</v>
+        <v>1537.848675876087</v>
       </c>
       <c r="Y35" t="n">
-        <v>1343.025408407472</v>
+        <v>1343.025408407471</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>664.8344201434883</v>
+        <v>605.8624990059276</v>
       </c>
       <c r="C36" t="n">
-        <v>492.0813050653055</v>
+        <v>605.8624990059276</v>
       </c>
       <c r="D36" t="n">
-        <v>344.4929984242493</v>
+        <v>530.8457303093144</v>
       </c>
       <c r="E36" t="n">
-        <v>186.883469427104</v>
+        <v>373.2362013121691</v>
       </c>
       <c r="F36" t="n">
-        <v>41.92767944372089</v>
+        <v>228.2804113287859</v>
       </c>
       <c r="G36" t="n">
-        <v>41.92767944372089</v>
+        <v>228.2804113287859</v>
       </c>
       <c r="H36" t="n">
-        <v>41.92767944372089</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="I36" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J36" t="n">
-        <v>46.53352317783009</v>
+        <v>46.53352317782918</v>
       </c>
       <c r="K36" t="n">
-        <v>231.0169014301706</v>
+        <v>231.0169014301697</v>
       </c>
       <c r="L36" t="n">
-        <v>539.9271771165777</v>
+        <v>539.9271771165768</v>
       </c>
       <c r="M36" t="n">
-        <v>953.2110925609329</v>
+        <v>953.211092560932</v>
       </c>
       <c r="N36" t="n">
-        <v>1392.832135485861</v>
+        <v>1392.83213548586</v>
       </c>
       <c r="O36" t="n">
-        <v>1727.371484126848</v>
+        <v>1727.371484126847</v>
       </c>
       <c r="P36" t="n">
-        <v>1979.442263842515</v>
+        <v>1979.442263842514</v>
       </c>
       <c r="Q36" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R36" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="S36" t="n">
-        <v>1931.025385874767</v>
+        <v>1931.025385874766</v>
       </c>
       <c r="T36" t="n">
-        <v>1731.791203468868</v>
+        <v>1731.791203468867</v>
       </c>
       <c r="U36" t="n">
-        <v>1535.128306476578</v>
+        <v>1504.883568517766</v>
       </c>
       <c r="V36" t="n">
-        <v>1300.877063002179</v>
+        <v>1270.632325043366</v>
       </c>
       <c r="W36" t="n">
-        <v>1048.362571335512</v>
+        <v>1018.1178333767</v>
       </c>
       <c r="X36" t="n">
-        <v>841.8356727410894</v>
+        <v>811.5909347822771</v>
       </c>
       <c r="Y36" t="n">
-        <v>831.8769712650487</v>
+        <v>605.8624990059276</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="C37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="D37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="E37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="F37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="G37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="H37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="K37" t="n">
-        <v>54.5904590294565</v>
+        <v>54.59045902945648</v>
       </c>
       <c r="L37" t="n">
         <v>126.5980723932111</v>
@@ -7120,25 +7120,25 @@
         <v>404.6035741702451</v>
       </c>
       <c r="S37" t="n">
-        <v>379.7092907467913</v>
+        <v>379.9463968178147</v>
       </c>
       <c r="T37" t="n">
-        <v>345.8641501500487</v>
+        <v>346.101256221072</v>
       </c>
       <c r="U37" t="n">
-        <v>252.7052692671647</v>
+        <v>252.942375338188</v>
       </c>
       <c r="V37" t="n">
         <v>192.9837398634945</v>
       </c>
       <c r="W37" t="n">
-        <v>99.77107326742399</v>
+        <v>99.77107326742396</v>
       </c>
       <c r="X37" t="n">
-        <v>67.11620157550121</v>
+        <v>67.11620157550118</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>1151.202809383139</v>
       </c>
       <c r="C38" t="n">
-        <v>976.280527846132</v>
+        <v>976.2805278461318</v>
       </c>
       <c r="D38" t="n">
-        <v>811.8434613842203</v>
+        <v>811.8434613842201</v>
       </c>
       <c r="E38" t="n">
-        <v>620.6252807801983</v>
+        <v>620.6252807801982</v>
       </c>
       <c r="F38" t="n">
         <v>404.9870721708699</v>
@@ -7166,40 +7166,40 @@
         <v>182.2458581786622</v>
       </c>
       <c r="H38" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I38" t="n">
-        <v>50.81705934118645</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J38" t="n">
-        <v>94.6074386705294</v>
+        <v>85.71805877306382</v>
       </c>
       <c r="K38" t="n">
-        <v>282.5144585320111</v>
+        <v>273.6250786345454</v>
       </c>
       <c r="L38" t="n">
-        <v>567.5988106686261</v>
+        <v>558.7094307711606</v>
       </c>
       <c r="M38" t="n">
-        <v>900.0223761525774</v>
+        <v>891.1329962551118</v>
       </c>
       <c r="N38" t="n">
-        <v>1222.307727471927</v>
+        <v>1405.292264162194</v>
       </c>
       <c r="O38" t="n">
-        <v>1480.504294423392</v>
+        <v>1663.488831113659</v>
       </c>
       <c r="P38" t="n">
-        <v>1759.609632392528</v>
+        <v>2035.81808441777</v>
       </c>
       <c r="Q38" t="n">
-        <v>2012.049436748535</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R38" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="S38" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="T38" t="n">
         <v>2069.275180193285</v>
@@ -7208,16 +7208,16 @@
         <v>2011.069713029952</v>
       </c>
       <c r="V38" t="n">
-        <v>1874.987708418626</v>
+        <v>1874.987708418625</v>
       </c>
       <c r="W38" t="n">
-        <v>1716.686617465849</v>
+        <v>1716.686617465848</v>
       </c>
       <c r="X38" t="n">
-        <v>1537.848675876088</v>
+        <v>1537.848675876087</v>
       </c>
       <c r="Y38" t="n">
-        <v>1343.025408407472</v>
+        <v>1343.025408407471</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>765.8074526835476</v>
+        <v>919.4988230120435</v>
       </c>
       <c r="C39" t="n">
-        <v>593.0543376053647</v>
+        <v>746.7457079338608</v>
       </c>
       <c r="D39" t="n">
-        <v>445.4660309643086</v>
+        <v>599.1574012928047</v>
       </c>
       <c r="E39" t="n">
-        <v>287.8565019671633</v>
+        <v>441.5478722956594</v>
       </c>
       <c r="F39" t="n">
-        <v>287.8565019671633</v>
+        <v>296.5920823122763</v>
       </c>
       <c r="G39" t="n">
-        <v>150.7451792118537</v>
+        <v>228.2804113287859</v>
       </c>
       <c r="H39" t="n">
-        <v>41.92767944372089</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="I39" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J39" t="n">
-        <v>75.79097456002782</v>
+        <v>75.79097456002779</v>
       </c>
       <c r="K39" t="n">
         <v>260.2743528123683</v>
@@ -7263,40 +7263,40 @@
         <v>982.4685439431306</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.832135485861</v>
+        <v>1422.089586868059</v>
       </c>
       <c r="O39" t="n">
-        <v>1727.371484126848</v>
+        <v>1756.628935509046</v>
       </c>
       <c r="P39" t="n">
-        <v>1979.442263842515</v>
+        <v>2008.699715224712</v>
       </c>
       <c r="Q39" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R39" t="n">
-        <v>2062.243156373638</v>
+        <v>2018.480827591542</v>
       </c>
       <c r="S39" t="n">
-        <v>2062.243156373638</v>
+        <v>1853.122241280264</v>
       </c>
       <c r="T39" t="n">
-        <v>2058.778708268047</v>
+        <v>1653.888058874365</v>
       </c>
       <c r="U39" t="n">
-        <v>1831.871073316946</v>
+        <v>1426.980423923264</v>
       </c>
       <c r="V39" t="n">
-        <v>1597.619829842547</v>
+        <v>1192.729180448865</v>
       </c>
       <c r="W39" t="n">
-        <v>1345.10533817588</v>
+        <v>940.2146887821979</v>
       </c>
       <c r="X39" t="n">
-        <v>1138.578439581458</v>
+        <v>929.4575244880842</v>
       </c>
       <c r="Y39" t="n">
-        <v>932.850003805108</v>
+        <v>919.4988230120435</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="C40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="D40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="E40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="F40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="G40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="H40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="K40" t="n">
-        <v>54.5904590294565</v>
+        <v>54.59045902945648</v>
       </c>
       <c r="L40" t="n">
         <v>126.5980723932111</v>
@@ -7357,25 +7357,25 @@
         <v>404.6035741702451</v>
       </c>
       <c r="S40" t="n">
-        <v>379.9463968178147</v>
+        <v>379.7092907467908</v>
       </c>
       <c r="T40" t="n">
-        <v>346.1012562210721</v>
+        <v>345.8641501500482</v>
       </c>
       <c r="U40" t="n">
-        <v>252.9423753381881</v>
+        <v>252.7052692671643</v>
       </c>
       <c r="V40" t="n">
-        <v>192.9837398634944</v>
+        <v>192.9837398634942</v>
       </c>
       <c r="W40" t="n">
-        <v>99.77107326742393</v>
+        <v>99.77107326742379</v>
       </c>
       <c r="X40" t="n">
-        <v>67.11620157550118</v>
+        <v>67.11620157550109</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
     </row>
     <row r="41">
@@ -7385,64 +7385,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1151.20280938314</v>
+        <v>1151.202809383139</v>
       </c>
       <c r="C41" t="n">
-        <v>976.2805278461326</v>
+        <v>976.2805278461323</v>
       </c>
       <c r="D41" t="n">
-        <v>811.8434613842207</v>
+        <v>811.8434613842205</v>
       </c>
       <c r="E41" t="n">
-        <v>620.6252807801989</v>
+        <v>620.6252807801986</v>
       </c>
       <c r="F41" t="n">
         <v>404.9870721708703</v>
       </c>
       <c r="G41" t="n">
-        <v>182.2458581786623</v>
+        <v>182.2458581786622</v>
       </c>
       <c r="H41" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I41" t="n">
-        <v>50.81705934118642</v>
+        <v>50.81705934118648</v>
       </c>
       <c r="J41" t="n">
-        <v>286.4813552582621</v>
+        <v>94.60743867052943</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3883751197437</v>
+        <v>282.5144585320111</v>
       </c>
       <c r="L41" t="n">
-        <v>759.4727272563589</v>
+        <v>567.5988106686261</v>
       </c>
       <c r="M41" t="n">
-        <v>1271.910163010582</v>
+        <v>900.0223761525774</v>
       </c>
       <c r="N41" t="n">
-        <v>1594.195514329931</v>
+        <v>1222.307727471927</v>
       </c>
       <c r="O41" t="n">
-        <v>1852.392081281396</v>
+        <v>1576.183629256153</v>
       </c>
       <c r="P41" t="n">
-        <v>2035.818084417771</v>
+        <v>1759.609632392527</v>
       </c>
       <c r="Q41" t="n">
-        <v>2096.383972186045</v>
+        <v>2012.049436748534</v>
       </c>
       <c r="R41" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="S41" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="T41" t="n">
-        <v>2069.275180193286</v>
+        <v>2069.275180193285</v>
       </c>
       <c r="U41" t="n">
-        <v>2011.069713029953</v>
+        <v>2011.069713029952</v>
       </c>
       <c r="V41" t="n">
         <v>1874.987708418626</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.298474783863</v>
+        <v>742.3696522604207</v>
       </c>
       <c r="C42" t="n">
-        <v>815.5453597056801</v>
+        <v>569.6165371822378</v>
       </c>
       <c r="D42" t="n">
-        <v>667.957053064624</v>
+        <v>422.0282305411816</v>
       </c>
       <c r="E42" t="n">
-        <v>510.3475240674787</v>
+        <v>264.4187015440363</v>
       </c>
       <c r="F42" t="n">
-        <v>365.3917340840956</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="G42" t="n">
-        <v>228.2804113287859</v>
+        <v>119.4629115606532</v>
       </c>
       <c r="H42" t="n">
         <v>119.4629115606532</v>
       </c>
       <c r="I42" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J42" t="n">
-        <v>46.53352317783009</v>
+        <v>75.79097456002779</v>
       </c>
       <c r="K42" t="n">
-        <v>231.0169014301706</v>
+        <v>260.2743528123683</v>
       </c>
       <c r="L42" t="n">
-        <v>539.9271771165777</v>
+        <v>569.1846284987754</v>
       </c>
       <c r="M42" t="n">
-        <v>953.2110925609329</v>
+        <v>982.4685439431306</v>
       </c>
       <c r="N42" t="n">
-        <v>1392.832135485861</v>
+        <v>1422.089586868059</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.371484126848</v>
+        <v>1756.628935509046</v>
       </c>
       <c r="P42" t="n">
-        <v>1979.442263842515</v>
+        <v>2008.699715224712</v>
       </c>
       <c r="Q42" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R42" t="n">
-        <v>2018.480827591543</v>
+        <v>2038.805355950511</v>
       </c>
       <c r="S42" t="n">
-        <v>1853.122241280265</v>
+        <v>2038.805355950511</v>
       </c>
       <c r="T42" t="n">
-        <v>1693.960527467436</v>
+        <v>1839.571173544612</v>
       </c>
       <c r="U42" t="n">
-        <v>1662.822626816644</v>
+        <v>1612.66353859351</v>
       </c>
       <c r="V42" t="n">
-        <v>1624.341117642553</v>
+        <v>1378.412295119111</v>
       </c>
       <c r="W42" t="n">
-        <v>1567.596360276195</v>
+        <v>1125.897803452444</v>
       </c>
       <c r="X42" t="n">
-        <v>1361.069461681773</v>
+        <v>1115.140639158331</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.341025905424</v>
+        <v>909.4122033819812</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="C43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="D43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="E43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="F43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="G43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="H43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="K43" t="n">
-        <v>54.5904590294565</v>
+        <v>54.59045902945648</v>
       </c>
       <c r="L43" t="n">
         <v>126.5980723932111</v>
@@ -7594,25 +7594,25 @@
         <v>404.6035741702451</v>
       </c>
       <c r="S43" t="n">
-        <v>379.9463968178147</v>
+        <v>379.7092907467908</v>
       </c>
       <c r="T43" t="n">
-        <v>346.101256221072</v>
+        <v>345.8641501500482</v>
       </c>
       <c r="U43" t="n">
-        <v>252.942375338188</v>
+        <v>252.7052692671643</v>
       </c>
       <c r="V43" t="n">
-        <v>193.2208459345179</v>
+        <v>192.9837398634942</v>
       </c>
       <c r="W43" t="n">
-        <v>100.0081793384473</v>
+        <v>99.77107326742379</v>
       </c>
       <c r="X43" t="n">
-        <v>67.11620157550121</v>
+        <v>67.11620157550109</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
     </row>
     <row r="44">
@@ -7625,64 +7625,64 @@
         <v>1151.20280938314</v>
       </c>
       <c r="C44" t="n">
-        <v>976.2805278461331</v>
+        <v>976.2805278461327</v>
       </c>
       <c r="D44" t="n">
-        <v>811.8434613842214</v>
+        <v>811.843461384221</v>
       </c>
       <c r="E44" t="n">
-        <v>620.6252807801993</v>
+        <v>620.6252807801989</v>
       </c>
       <c r="F44" t="n">
-        <v>404.9870721708707</v>
+        <v>404.9870721708702</v>
       </c>
       <c r="G44" t="n">
-        <v>182.2458581786623</v>
+        <v>182.2458581786622</v>
       </c>
       <c r="H44" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I44" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J44" t="n">
-        <v>274.6213089408012</v>
+        <v>85.71805877306382</v>
       </c>
       <c r="K44" t="n">
-        <v>462.5283288022828</v>
+        <v>273.6250786345454</v>
       </c>
       <c r="L44" t="n">
-        <v>747.6126809388979</v>
+        <v>750.5833473588932</v>
       </c>
       <c r="M44" t="n">
-        <v>1080.036246422849</v>
+        <v>1269.438380474939</v>
       </c>
       <c r="N44" t="n">
-        <v>1402.321597742199</v>
+        <v>1591.723731794289</v>
       </c>
       <c r="O44" t="n">
-        <v>1660.518164693664</v>
+        <v>1849.920298745754</v>
       </c>
       <c r="P44" t="n">
-        <v>1843.944167830038</v>
+        <v>2035.81808441777</v>
       </c>
       <c r="Q44" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R44" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="S44" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="T44" t="n">
-        <v>2069.275180193286</v>
+        <v>2069.275180193285</v>
       </c>
       <c r="U44" t="n">
-        <v>2011.069713029954</v>
+        <v>2011.069713029953</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.987708418627</v>
+        <v>1874.987708418626</v>
       </c>
       <c r="W44" t="n">
         <v>1716.68661746585</v>
@@ -7691,7 +7691,7 @@
         <v>1537.848675876089</v>
       </c>
       <c r="Y44" t="n">
-        <v>1343.025408407473</v>
+        <v>1343.025408407472</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>360.9168032898663</v>
+        <v>664.8344201434883</v>
       </c>
       <c r="C45" t="n">
-        <v>360.9168032898663</v>
+        <v>492.0813050653055</v>
       </c>
       <c r="D45" t="n">
-        <v>360.9168032898663</v>
+        <v>344.4929984242493</v>
       </c>
       <c r="E45" t="n">
-        <v>360.9168032898663</v>
+        <v>186.883469427104</v>
       </c>
       <c r="F45" t="n">
-        <v>287.8565019671633</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="G45" t="n">
-        <v>150.7451792118537</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="H45" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I45" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J45" t="n">
-        <v>46.53352317783009</v>
+        <v>75.79097456002779</v>
       </c>
       <c r="K45" t="n">
-        <v>231.0169014301706</v>
+        <v>260.2743528123683</v>
       </c>
       <c r="L45" t="n">
-        <v>539.9271771165777</v>
+        <v>569.1846284987754</v>
       </c>
       <c r="M45" t="n">
-        <v>953.2110925609329</v>
+        <v>982.4685439431306</v>
       </c>
       <c r="N45" t="n">
-        <v>1392.832135485861</v>
+        <v>1422.089586868059</v>
       </c>
       <c r="O45" t="n">
-        <v>1727.371484126848</v>
+        <v>1756.628935509046</v>
       </c>
       <c r="P45" t="n">
-        <v>1979.442263842515</v>
+        <v>2008.699715224712</v>
       </c>
       <c r="Q45" t="n">
-        <v>2096.383972186045</v>
+        <v>2096.383972186044</v>
       </c>
       <c r="R45" t="n">
-        <v>2018.480827591543</v>
+        <v>2018.480827591542</v>
       </c>
       <c r="S45" t="n">
-        <v>1853.122241280265</v>
+        <v>1853.122241280264</v>
       </c>
       <c r="T45" t="n">
-        <v>1653.888058874366</v>
+        <v>1653.888058874365</v>
       </c>
       <c r="U45" t="n">
-        <v>1426.980423923265</v>
+        <v>1426.980423923264</v>
       </c>
       <c r="V45" t="n">
         <v>1192.729180448865</v>
       </c>
       <c r="W45" t="n">
-        <v>940.2146887821988</v>
+        <v>940.2146887821979</v>
       </c>
       <c r="X45" t="n">
-        <v>733.6877901877763</v>
+        <v>733.6877901877754</v>
       </c>
       <c r="Y45" t="n">
-        <v>527.9593544114267</v>
+        <v>664.8344201434883</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="C46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="D46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="E46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="F46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="G46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="H46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="I46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="J46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
       <c r="K46" t="n">
-        <v>54.5904590294565</v>
+        <v>54.59045902945648</v>
       </c>
       <c r="L46" t="n">
         <v>126.5980723932111</v>
@@ -7834,22 +7834,22 @@
         <v>379.9463968178147</v>
       </c>
       <c r="T46" t="n">
-        <v>346.101256221072</v>
+        <v>345.8641501500485</v>
       </c>
       <c r="U46" t="n">
-        <v>252.7052692671647</v>
+        <v>252.7052692671645</v>
       </c>
       <c r="V46" t="n">
-        <v>192.9837398634945</v>
+        <v>192.9837398634944</v>
       </c>
       <c r="W46" t="n">
-        <v>99.77107326742399</v>
+        <v>99.7710732674239</v>
       </c>
       <c r="X46" t="n">
-        <v>67.11620157550121</v>
+        <v>67.11620157550115</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.92767944372089</v>
+        <v>41.92767944372087</v>
       </c>
     </row>
   </sheetData>
@@ -8690,22 +8690,22 @@
         <v>131.627773385681</v>
       </c>
       <c r="K11" t="n">
-        <v>147.3061585068582</v>
+        <v>267.7755418899281</v>
       </c>
       <c r="L11" t="n">
-        <v>266.8730544583518</v>
+        <v>266.8730544583514</v>
       </c>
       <c r="M11" t="n">
-        <v>252.1820789388978</v>
+        <v>252.1820789388973</v>
       </c>
       <c r="N11" t="n">
-        <v>129.3000424800295</v>
+        <v>244.9019760294401</v>
       </c>
       <c r="O11" t="n">
-        <v>255.6969588140378</v>
+        <v>135.2275754309674</v>
       </c>
       <c r="P11" t="n">
-        <v>264.9937990009102</v>
+        <v>149.3918654514992</v>
       </c>
       <c r="Q11" t="n">
         <v>159.6299258739032</v>
@@ -8772,19 +8772,19 @@
         <v>88.69699977354591</v>
       </c>
       <c r="L12" t="n">
-        <v>189.2453111635872</v>
+        <v>73.64337761417626</v>
       </c>
       <c r="M12" t="n">
-        <v>187.3441492342267</v>
+        <v>187.3441492342263</v>
       </c>
       <c r="N12" t="n">
-        <v>174.9237931802369</v>
+        <v>174.9237931802364</v>
       </c>
       <c r="O12" t="n">
-        <v>192.1676614500742</v>
+        <v>192.1676614500737</v>
       </c>
       <c r="P12" t="n">
-        <v>76.58433017779024</v>
+        <v>192.1862637272008</v>
       </c>
       <c r="Q12" t="n">
         <v>100.3574415245459</v>
@@ -8927,22 +8927,22 @@
         <v>131.627773385681</v>
       </c>
       <c r="K14" t="n">
-        <v>147.3061585068582</v>
+        <v>267.7755418899281</v>
       </c>
       <c r="L14" t="n">
-        <v>146.4036710752814</v>
+        <v>262.005604624692</v>
       </c>
       <c r="M14" t="n">
-        <v>252.1820789388978</v>
+        <v>252.1820789388973</v>
       </c>
       <c r="N14" t="n">
-        <v>249.7694258630999</v>
+        <v>249.7694258630995</v>
       </c>
       <c r="O14" t="n">
-        <v>255.6969588140378</v>
+        <v>135.2275754309674</v>
       </c>
       <c r="P14" t="n">
-        <v>264.9937990009102</v>
+        <v>149.3918654514992</v>
       </c>
       <c r="Q14" t="n">
         <v>159.6299258739032</v>
@@ -9006,7 +9006,7 @@
         <v>96.92932815169495</v>
       </c>
       <c r="K15" t="n">
-        <v>209.1663831566163</v>
+        <v>88.69699977354591</v>
       </c>
       <c r="L15" t="n">
         <v>73.64337761417626</v>
@@ -9015,13 +9015,13 @@
         <v>66.8747658511563</v>
       </c>
       <c r="N15" t="n">
-        <v>54.45440979716648</v>
+        <v>174.9237931802364</v>
       </c>
       <c r="O15" t="n">
-        <v>192.1676614500741</v>
+        <v>192.1676614500737</v>
       </c>
       <c r="P15" t="n">
-        <v>194.5327093895345</v>
+        <v>194.5327093895336</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.627773385681</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
-        <v>267.7755418899286</v>
+        <v>147.3061585068582</v>
       </c>
       <c r="L17" t="n">
-        <v>266.8730544583518</v>
+        <v>146.4036710752814</v>
       </c>
       <c r="M17" t="n">
-        <v>247.3146291052384</v>
+        <v>141.9042582995646</v>
       </c>
       <c r="N17" t="n">
-        <v>129.3000424800295</v>
+        <v>249.7694258630995</v>
       </c>
       <c r="O17" t="n">
-        <v>135.2275754309674</v>
+        <v>255.6969588140373</v>
       </c>
       <c r="P17" t="n">
-        <v>269.8612488345697</v>
+        <v>269.8612488345692</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9240,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>96.92932815169495</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.69699977354591</v>
+        <v>209.1663831566159</v>
       </c>
       <c r="L18" t="n">
         <v>73.64337761417626</v>
       </c>
       <c r="M18" t="n">
-        <v>187.3441492342267</v>
+        <v>66.8747658511563</v>
       </c>
       <c r="N18" t="n">
-        <v>174.9237931802369</v>
+        <v>54.45440979716648</v>
       </c>
       <c r="O18" t="n">
-        <v>192.1676614500741</v>
+        <v>155.4413086764169</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1862637272012</v>
+        <v>197.0537135608602</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.3574415245459</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9404,22 +9404,22 @@
         <v>147.3061585068582</v>
       </c>
       <c r="L20" t="n">
-        <v>266.8730544583518</v>
+        <v>146.4036710752814</v>
       </c>
       <c r="M20" t="n">
-        <v>252.1820789388978</v>
+        <v>186.1369646928403</v>
       </c>
       <c r="N20" t="n">
-        <v>249.7694258630999</v>
+        <v>249.7694258630995</v>
       </c>
       <c r="O20" t="n">
-        <v>250.8295089803783</v>
+        <v>255.6969588140373</v>
       </c>
       <c r="P20" t="n">
-        <v>149.3918654514992</v>
+        <v>269.8612488345692</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.6299258739032</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9480,7 +9480,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>209.1663831566163</v>
+        <v>88.69699977354591</v>
       </c>
       <c r="L21" t="n">
         <v>73.64337761417626</v>
@@ -9489,13 +9489,13 @@
         <v>66.8747658511563</v>
       </c>
       <c r="N21" t="n">
-        <v>138.1974404065805</v>
+        <v>138.1974404065796</v>
       </c>
       <c r="O21" t="n">
-        <v>192.1676614500742</v>
+        <v>192.1676614500737</v>
       </c>
       <c r="P21" t="n">
-        <v>76.58433017779024</v>
+        <v>197.0537135608602</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9638,19 +9638,19 @@
         <v>131.627773385681</v>
       </c>
       <c r="K23" t="n">
-        <v>147.3061585068582</v>
+        <v>267.7755418899281</v>
       </c>
       <c r="L23" t="n">
-        <v>266.8730544583518</v>
+        <v>266.8730544583514</v>
       </c>
       <c r="M23" t="n">
-        <v>252.1820789388978</v>
+        <v>252.1820789388973</v>
       </c>
       <c r="N23" t="n">
-        <v>244.9019760294405</v>
+        <v>244.9019760294401</v>
       </c>
       <c r="O23" t="n">
-        <v>255.6969588140378</v>
+        <v>135.2275754309674</v>
       </c>
       <c r="P23" t="n">
         <v>149.3918654514992</v>
@@ -9714,25 +9714,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>96.92932815169495</v>
       </c>
       <c r="K24" t="n">
-        <v>209.1663831566163</v>
+        <v>88.69699977354591</v>
       </c>
       <c r="L24" t="n">
-        <v>194.1127609972467</v>
+        <v>73.64337761417626</v>
       </c>
       <c r="M24" t="n">
-        <v>187.3441492342267</v>
+        <v>182.4766994005669</v>
       </c>
       <c r="N24" t="n">
-        <v>54.45440979716648</v>
+        <v>174.9237931802365</v>
       </c>
       <c r="O24" t="n">
-        <v>71.69827806700374</v>
+        <v>192.1676614500737</v>
       </c>
       <c r="P24" t="n">
-        <v>157.980915124871</v>
+        <v>197.0537135608602</v>
       </c>
       <c r="Q24" t="n">
         <v>100.3574415245459</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>101.5816955598861</v>
+        <v>101.5816955598852</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10911,7 +10911,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>468.9630881231566</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -10920,7 +10920,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>188.927398051143</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>101.5816955598861</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>188.927398051143</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>101.5816955598861</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>218.4803792452831</v>
+        <v>188.927398051143</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180.9119809399701</v>
+        <v>180.91198093997</v>
       </c>
       <c r="C11" t="n">
-        <v>164.1806666275177</v>
+        <v>164.1806666275176</v>
       </c>
       <c r="D11" t="n">
-        <v>153.8003037031735</v>
+        <v>153.8003037031733</v>
       </c>
       <c r="E11" t="n">
-        <v>180.3136067038625</v>
+        <v>180.3136067038624</v>
       </c>
       <c r="F11" t="n">
-        <v>84.02005104604551</v>
+        <v>116.2253135240194</v>
       </c>
       <c r="G11" t="n">
-        <v>91.05202637509605</v>
+        <v>91.05202637509633</v>
       </c>
       <c r="H11" t="n">
-        <v>9.453221470402369</v>
+        <v>9.453221470402653</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>48.63102039758035</v>
+        <v>48.63102039758019</v>
       </c>
       <c r="V11" t="n">
-        <v>37.46467156599792</v>
+        <v>125.7287924710943</v>
       </c>
       <c r="W11" t="n">
-        <v>147.7256879491297</v>
+        <v>147.7256879491295</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0571700797445</v>
+        <v>47.58778669667434</v>
       </c>
       <c r="Y11" t="n">
-        <v>183.8826426998109</v>
+        <v>183.8826426998107</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.9119809399701</v>
+        <v>92.64786003487372</v>
       </c>
       <c r="C14" t="n">
-        <v>164.1806666275177</v>
+        <v>164.1806666275176</v>
       </c>
       <c r="D14" t="n">
-        <v>33.33092032010306</v>
+        <v>33.33092032010335</v>
       </c>
       <c r="E14" t="n">
-        <v>180.3136067038625</v>
+        <v>180.3136067038624</v>
       </c>
       <c r="F14" t="n">
-        <v>204.4894344291159</v>
+        <v>204.4894344291158</v>
       </c>
       <c r="G14" t="n">
-        <v>211.5214097581665</v>
+        <v>211.5214097581663</v>
       </c>
       <c r="H14" t="n">
-        <v>9.453221470402369</v>
+        <v>9.453221470402653</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>48.63102039758018</v>
       </c>
       <c r="V14" t="n">
-        <v>125.7287924710944</v>
+        <v>125.7287924710943</v>
       </c>
       <c r="W14" t="n">
-        <v>147.7256879491297</v>
+        <v>27.25630456605954</v>
       </c>
       <c r="X14" t="n">
-        <v>128.4240695722284</v>
+        <v>168.0571700797443</v>
       </c>
       <c r="Y14" t="n">
-        <v>63.41325931674048</v>
+        <v>183.8826426998107</v>
       </c>
     </row>
     <row r="15">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>865406.3987522292</v>
+        <v>865406.3987522289</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>989439.5190029356</v>
+        <v>989439.5190029355</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>989439.5190029356</v>
+        <v>989439.5190029355</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>989439.5190029356</v>
+        <v>989439.5190029355</v>
       </c>
     </row>
     <row r="10">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>548205.5549851251</v>
+      </c>
+      <c r="C2" t="n">
         <v>548205.554985125</v>
-      </c>
-      <c r="C2" t="n">
-        <v>548205.5549851247</v>
       </c>
       <c r="D2" t="n">
         <v>548205.554985125</v>
       </c>
       <c r="E2" t="n">
-        <v>471514.339262313</v>
+        <v>471514.3392623132</v>
       </c>
       <c r="F2" t="n">
-        <v>471514.3392623128</v>
+        <v>471514.3392623132</v>
       </c>
       <c r="G2" t="n">
-        <v>549395.6008150822</v>
+        <v>549395.6008150824</v>
       </c>
       <c r="H2" t="n">
+        <v>549395.6008150824</v>
+      </c>
+      <c r="I2" t="n">
+        <v>549395.6008150823</v>
+      </c>
+      <c r="J2" t="n">
         <v>549395.6008150821</v>
       </c>
-      <c r="I2" t="n">
-        <v>549395.6008150822</v>
-      </c>
-      <c r="J2" t="n">
-        <v>549395.6008150824</v>
-      </c>
       <c r="K2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.600815082</v>
       </c>
       <c r="L2" t="n">
-        <v>549395.6008150823</v>
+        <v>549395.600815082</v>
       </c>
       <c r="M2" t="n">
-        <v>549395.6008150828</v>
+        <v>549395.6008150827</v>
       </c>
       <c r="N2" t="n">
+        <v>549395.6008150826</v>
+      </c>
+      <c r="O2" t="n">
         <v>549395.6008150827</v>
-      </c>
-      <c r="O2" t="n">
-        <v>549395.6008150829</v>
       </c>
       <c r="P2" t="n">
         <v>549395.6008150826</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100583.0339768755</v>
+        <v>100583.0339768756</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>166180.0073458106</v>
+        <v>166180.0073458107</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>100583.0339768755</v>
+        <v>100583.0339768756</v>
       </c>
       <c r="M3" t="n">
-        <v>25413.16024781986</v>
+        <v>25413.16024781965</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>29053.43534114916</v>
+        <v>29053.43534114936</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>459145.3766997027</v>
       </c>
       <c r="E4" t="n">
+        <v>349359.7455095868</v>
+      </c>
+      <c r="F4" t="n">
         <v>349359.7455095867</v>
-      </c>
-      <c r="F4" t="n">
-        <v>349359.7455095868</v>
       </c>
       <c r="G4" t="n">
         <v>415214.6490622307</v>
@@ -26439,16 +26439,16 @@
         <v>415214.6490622307</v>
       </c>
       <c r="J4" t="n">
-        <v>414865.9762198931</v>
+        <v>414865.9762198932</v>
       </c>
       <c r="K4" t="n">
-        <v>414865.9762198931</v>
+        <v>414865.9762198932</v>
       </c>
       <c r="L4" t="n">
-        <v>414865.9762198931</v>
+        <v>414865.9762198932</v>
       </c>
       <c r="M4" t="n">
-        <v>414308.3928801181</v>
+        <v>414308.392880118</v>
       </c>
       <c r="N4" t="n">
         <v>414308.392880118</v>
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27242.34074452738</v>
+        <v>27242.34074452737</v>
       </c>
       <c r="F5" t="n">
-        <v>27242.34074452738</v>
+        <v>27242.34074452737</v>
       </c>
       <c r="G5" t="n">
-        <v>37812.23459877982</v>
+        <v>37812.23459877981</v>
       </c>
       <c r="H5" t="n">
-        <v>37812.23459877983</v>
+        <v>37812.23459877981</v>
       </c>
       <c r="I5" t="n">
-        <v>37812.23459877983</v>
+        <v>37812.23459877981</v>
       </c>
       <c r="J5" t="n">
-        <v>55680.8219997023</v>
+        <v>55680.82199970227</v>
       </c>
       <c r="K5" t="n">
-        <v>55680.8219997023</v>
+        <v>55680.82199970227</v>
       </c>
       <c r="L5" t="n">
-        <v>55680.8219997023</v>
+        <v>55680.82199970227</v>
       </c>
       <c r="M5" t="n">
-        <v>51026.85720110407</v>
+        <v>51026.85720110406</v>
       </c>
       <c r="N5" t="n">
         <v>51026.85720110407</v>
@@ -26509,7 +26509,7 @@
         <v>51026.85720110407</v>
       </c>
       <c r="P5" t="n">
-        <v>51026.85720110407</v>
+        <v>51026.85720110406</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55432.57828542227</v>
+        <v>55428.1707082744</v>
       </c>
       <c r="C6" t="n">
-        <v>55432.57828542204</v>
+        <v>55428.17070827428</v>
       </c>
       <c r="D6" t="n">
-        <v>55432.57828542227</v>
+        <v>55428.17070827428</v>
       </c>
       <c r="E6" t="n">
-        <v>-209004.9244169087</v>
+        <v>-209293.3735337708</v>
       </c>
       <c r="F6" t="n">
-        <v>94912.25300819866</v>
+        <v>94623.80389133703</v>
       </c>
       <c r="G6" t="n">
-        <v>-4214.316822803812</v>
+        <v>-4214.31682280363</v>
       </c>
       <c r="H6" t="n">
-        <v>96368.71715407155</v>
+        <v>96368.7171540719</v>
       </c>
       <c r="I6" t="n">
-        <v>96368.71715407167</v>
+        <v>96368.71715407178</v>
       </c>
       <c r="J6" t="n">
-        <v>-87331.20475032361</v>
+        <v>-87331.20475032403</v>
       </c>
       <c r="K6" t="n">
-        <v>78848.80259548686</v>
+        <v>78848.8025954865</v>
       </c>
       <c r="L6" t="n">
-        <v>-21734.23138138866</v>
+        <v>-21734.23138138904</v>
       </c>
       <c r="M6" t="n">
-        <v>58647.19048604076</v>
+        <v>58647.19048604089</v>
       </c>
       <c r="N6" t="n">
-        <v>84060.35073386054</v>
+        <v>84060.35073386032</v>
       </c>
       <c r="O6" t="n">
-        <v>55006.91539271156</v>
+        <v>55006.91539271116</v>
       </c>
       <c r="P6" t="n">
-        <v>84060.35073386042</v>
+        <v>84060.35073386051</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="F2" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="G2" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="H2" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="I2" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="J2" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="K2" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="L2" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="M2" t="n">
         <v>193.8120369573057</v>
       </c>
       <c r="N2" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="O2" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="P2" t="n">
         <v>193.8120369573057</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="F4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="G4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="H4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="I4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="J4" t="n">
-        <v>644.5653764295816</v>
+        <v>644.5653764295809</v>
       </c>
       <c r="K4" t="n">
-        <v>644.5653764295816</v>
+        <v>644.5653764295809</v>
       </c>
       <c r="L4" t="n">
-        <v>644.5653764295816</v>
+        <v>644.5653764295809</v>
       </c>
       <c r="M4" t="n">
-        <v>524.0959930465111</v>
+        <v>524.0959930465109</v>
       </c>
       <c r="N4" t="n">
-        <v>524.0959930465111</v>
+        <v>524.0959930465109</v>
       </c>
       <c r="O4" t="n">
-        <v>524.0959930465111</v>
+        <v>524.0959930465109</v>
       </c>
       <c r="P4" t="n">
-        <v>524.0959930465111</v>
+        <v>524.0959930465109</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,13 +26923,13 @@
         <v>125.7287924710944</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>36.31679417643647</v>
+        <v>36.3167941764367</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>125.7287924710944</v>
       </c>
       <c r="M2" t="n">
-        <v>31.76645030977483</v>
+        <v>31.76645030977457</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643645</v>
+        <v>36.3167941764367</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>524.0959930465112</v>
+        <v>524.0959930465109</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>125.7287924710944</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>36.31679417643647</v>
+        <v>36.3167941764367</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="C11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="D11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="E11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="F11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="G11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="H11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="I11" t="n">
         <v>184.8328653437042</v>
@@ -28141,22 +28141,22 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="U11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="V11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="W11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="X11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="Y11" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
     </row>
     <row r="12">
@@ -28184,10 +28184,10 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S12" t="n">
         <v>163.7050004481646</v>
       </c>
       <c r="T12" t="n">
-        <v>197.2418405818404</v>
+        <v>76.7724571987704</v>
       </c>
       <c r="U12" t="n">
-        <v>170.8319015788568</v>
+        <v>104.1691752185204</v>
       </c>
       <c r="V12" t="n">
-        <v>202.8044290514249</v>
+        <v>111.4393476565852</v>
       </c>
       <c r="W12" t="n">
-        <v>129.5199633669296</v>
+        <v>146.4038367904062</v>
       </c>
       <c r="X12" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="Y12" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
     </row>
     <row r="13">
@@ -28296,25 +28296,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S13" t="n">
-        <v>202.8044290514249</v>
+        <v>176.8574327854105</v>
       </c>
       <c r="T13" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="U13" t="n">
-        <v>202.8044290514249</v>
+        <v>165.5699456482909</v>
       </c>
       <c r="V13" t="n">
-        <v>139.6229493822775</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="W13" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="X13" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="C14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="D14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="E14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="F14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="G14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="H14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="I14" t="n">
         <v>184.8328653437042</v>
@@ -28378,22 +28378,22 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="U14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="V14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="W14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="X14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="Y14" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
     </row>
     <row r="15">
@@ -28421,10 +28421,10 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S15" t="n">
-        <v>163.7050004481646</v>
+        <v>43.23561706509464</v>
       </c>
       <c r="T15" t="n">
         <v>197.2418405818404</v>
       </c>
       <c r="U15" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="V15" t="n">
-        <v>202.8044290514249</v>
+        <v>148.5001500731733</v>
       </c>
       <c r="W15" t="n">
-        <v>202.8044290514249</v>
+        <v>129.5199633669301</v>
       </c>
       <c r="X15" t="n">
-        <v>202.8044290514249</v>
+        <v>83.99224622540829</v>
       </c>
       <c r="Y15" t="n">
-        <v>97.54743589436148</v>
+        <v>202.8044290514251</v>
       </c>
     </row>
     <row r="16">
@@ -28533,25 +28533,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S16" t="n">
-        <v>139.6229493822774</v>
+        <v>139.6229493822763</v>
       </c>
       <c r="T16" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="U16" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="V16" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="W16" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="X16" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.8044290514249</v>
+        <v>202.8044290514251</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="C17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="D17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="E17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="F17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="G17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="H17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="I17" t="n">
         <v>184.8328653437042</v>
@@ -28621,16 +28621,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="W17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="X17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="Y17" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
     </row>
     <row r="18">
@@ -28643,25 +28643,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>50.55620054433057</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>35.56405032410341</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>101.4166203828857</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7402095277565</v>
+        <v>15.27082614468654</v>
       </c>
       <c r="H18" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28691,10 +28691,10 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S18" t="n">
-        <v>43.23561706509419</v>
+        <v>43.23561706509464</v>
       </c>
       <c r="T18" t="n">
-        <v>91.13240769803197</v>
+        <v>197.2418405818404</v>
       </c>
       <c r="U18" t="n">
         <v>224.6385586015903</v>
@@ -28731,19 +28731,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>28.04865239668543</v>
       </c>
       <c r="G19" t="n">
         <v>167.6523306688805</v>
       </c>
       <c r="H19" t="n">
-        <v>159.5246303772757</v>
+        <v>39.05524699420572</v>
       </c>
       <c r="I19" t="n">
-        <v>146.6235438143066</v>
+        <v>26.15416043123663</v>
       </c>
       <c r="J19" t="n">
-        <v>13.84787268384267</v>
+        <v>72.06468585899249</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,19 +28764,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>59.89355583796828</v>
       </c>
       <c r="R19" t="n">
         <v>162.723153487679</v>
       </c>
       <c r="S19" t="n">
-        <v>97.7532591531414</v>
+        <v>218.2226425362118</v>
       </c>
       <c r="T19" t="n">
         <v>227.3187261480809</v>
       </c>
       <c r="U19" t="n">
-        <v>165.5699456482905</v>
+        <v>286.0393290313609</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="C20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="D20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="E20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="F20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="G20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="H20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="I20" t="n">
         <v>184.8328653437042</v>
@@ -28858,16 +28858,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="W20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="X20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="Y20" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
     </row>
     <row r="21">
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.9027422272744</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
@@ -28895,7 +28895,7 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H21" t="n">
-        <v>78.74400503519969</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I21" t="n">
         <v>76.75987979576297</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7050004481646</v>
+        <v>134.7196807129133</v>
       </c>
       <c r="T21" t="n">
         <v>197.2418405818404</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6385586015903</v>
+        <v>104.1691752185203</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>111.4393476565852</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>129.5199633669301</v>
       </c>
       <c r="X21" t="n">
-        <v>83.99224622540784</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.2017680355156</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.61430810761338</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
-        <v>46.86716954813191</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D22" t="n">
-        <v>30.89519750140126</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
         <v>146.9746241731992</v>
@@ -28971,7 +28971,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6523306688805</v>
+        <v>47.18294728581056</v>
       </c>
       <c r="H22" t="n">
         <v>159.5246303772757</v>
@@ -28980,7 +28980,7 @@
         <v>146.6235438143066</v>
       </c>
       <c r="J22" t="n">
-        <v>72.06468585899249</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29010,10 +29010,10 @@
         <v>218.2226425362118</v>
       </c>
       <c r="T22" t="n">
-        <v>227.3187261480809</v>
+        <v>106.849342765011</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0393290313609</v>
+        <v>239.9936458772343</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="C23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="D23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="E23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="F23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="G23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="H23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="I23" t="n">
         <v>184.8328653437042</v>
@@ -29095,16 +29095,16 @@
         <v>251.4354494490053</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="W23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="X23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
       <c r="Y23" t="n">
-        <v>328.5332215225193</v>
+        <v>328.5332215225195</v>
       </c>
     </row>
     <row r="24">
@@ -29114,19 +29114,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.26269272653643</v>
+        <v>44.90274222727486</v>
       </c>
       <c r="C24" t="n">
-        <v>50.55620054433057</v>
+        <v>142.0402641921497</v>
       </c>
       <c r="D24" t="n">
-        <v>25.64304019157514</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>23.03684870047887</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7402095277565</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.12411314855666</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>163.7050004481646</v>
@@ -29177,10 +29177,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>129.5199633669301</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>83.99224622540829</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -29202,13 +29202,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>26.50524079012875</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>25.68963802673407</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>49.54196165576242</v>
+        <v>167.6523306688805</v>
       </c>
       <c r="H25" t="n">
         <v>159.5246303772757</v>
@@ -29217,7 +29217,7 @@
         <v>146.6235438143066</v>
       </c>
       <c r="J25" t="n">
-        <v>72.06468585899249</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,13 +29250,13 @@
         <v>227.3187261480809</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0393290313609</v>
+        <v>239.9936458772343</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>132.4669676838692</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>165.6231935043456</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="E26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="G26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="K26" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="M26" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="O26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="P26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.40555122406916</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.6256375254776</v>
+        <v>160.0311887495428</v>
       </c>
       <c r="S26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="27">
@@ -29357,19 +29357,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>55.18748193930561</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29405,16 +29405,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>69.36677539675581</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29430,10 +29430,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D28" t="n">
         <v>149.0055665145194</v>
@@ -29445,7 +29445,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H28" t="n">
         <v>159.5246303772757</v>
@@ -29466,40 +29466,40 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>94.80963133678679</v>
       </c>
       <c r="O28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>154.7031871747578</v>
+        <v>59.89355583796828</v>
       </c>
       <c r="R28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y28" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="E29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="G29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>160.0311887495429</v>
       </c>
       <c r="K29" t="n">
-        <v>160.0311887495464</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="M29" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Q29" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="30">
@@ -29591,19 +29591,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>59.05478795427804</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7402095277565</v>
+        <v>83.19836669661116</v>
       </c>
       <c r="H30" t="n">
         <v>107.7293247704514</v>
@@ -29636,13 +29636,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.12411314855666</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -29682,7 +29682,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H31" t="n">
         <v>159.5246303772757</v>
@@ -29703,40 +29703,40 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>154.7031871747579</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>162.0455866475309</v>
+        <v>154.7031871747551</v>
       </c>
       <c r="R31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="E32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="F32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="G32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="I32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="J32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="K32" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="O32" t="n">
-        <v>162.0455866475309</v>
+        <v>160.0311887495429</v>
       </c>
       <c r="P32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>160.0311887495469</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y32" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="33">
@@ -29831,22 +29831,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>63.35462245639843</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.438486900848204</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.75987979576297</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>77.12411314855666</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T33" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,10 +29904,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="C34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="D34" t="n">
         <v>149.0055665145194</v>
@@ -29919,7 +29919,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="H34" t="n">
         <v>159.5246303772757</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -29946,34 +29946,34 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>162.0455866475309</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>154.7031871747574</v>
+        <v>154.7031871747551</v>
       </c>
       <c r="R34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="S34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="T34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="U34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="V34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="W34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="X34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
       <c r="Y34" t="n">
-        <v>162.0455866475309</v>
+        <v>162.0455866475311</v>
       </c>
     </row>
     <row r="35">
@@ -30004,34 +30004,34 @@
         <v>193.8120369573057</v>
       </c>
       <c r="I35" t="n">
+        <v>184.8328653437042</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>190.8113638057946</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>193.8120369573057</v>
       </c>
-      <c r="J35" t="n">
-        <v>96.64579276036569</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>193.8120369573057</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
       <c r="R35" t="n">
-        <v>193.8120369573057</v>
+        <v>108.6256375254776</v>
       </c>
       <c r="S35" t="n">
         <v>193.8120369573057</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>71.84582256499849</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>135.7402095277565</v>
       </c>
       <c r="H36" t="n">
-        <v>107.7293247704514</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30119,7 +30119,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>29.94229057922331</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30192,7 +30192,7 @@
         <v>162.723153487679</v>
       </c>
       <c r="S37" t="n">
-        <v>193.5773019469926</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="T37" t="n">
         <v>193.8120369573057</v>
@@ -30201,7 +30201,7 @@
         <v>193.8120369573057</v>
       </c>
       <c r="V37" t="n">
-        <v>193.8120369573057</v>
+        <v>193.5773019469926</v>
       </c>
       <c r="W37" t="n">
         <v>193.8120369573057</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="C38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="D38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="E38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="F38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="G38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="H38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="I38" t="n">
-        <v>193.8120369573057</v>
+        <v>184.8328653437042</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30256,40 +30256,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>96.64579276036554</v>
+        <v>190.8113638057942</v>
       </c>
       <c r="Q38" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>193.8120369573057</v>
+        <v>108.6256375254776</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="T38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y38" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="39">
@@ -30299,7 +30299,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -30311,16 +30311,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>68.11165525410109</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.75987979576297</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,13 +30347,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>43.32470549427438</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>163.7050004481646</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30365,10 +30365,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="40">
@@ -30429,25 +30429,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.577301946992</v>
       </c>
       <c r="T40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V40" t="n">
-        <v>193.5773019469924</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y40" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="C41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="D41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="E41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="F41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="G41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="H41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="I41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="J41" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,43 +30490,43 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>181.8321921921938</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>96.64579276036449</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="R41" t="n">
-        <v>108.6256375254776</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="T41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="42">
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,25 +30584,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>20.12128307537945</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7050004481646</v>
       </c>
       <c r="T42" t="n">
-        <v>39.67174390713942</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>162.723153487679</v>
       </c>
       <c r="S43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.577301946992</v>
       </c>
       <c r="T43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="V43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="W43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="X43" t="n">
-        <v>193.5773019469926</v>
+        <v>193.8120369573058</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.8120369573057</v>
+        <v>193.8120369573058</v>
       </c>
     </row>
     <row r="44">
@@ -30718,16 +30718,16 @@
         <v>184.8328653437042</v>
       </c>
       <c r="J44" t="n">
-        <v>190.8113638057953</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>193.8120369573057</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>188.3146137697925</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -30736,10 +30736,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.496750036001941</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.8120369573057</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.6256375254776</v>
@@ -30773,25 +30773,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>71.17653377407336</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7402095277565</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7293247704514</v>
       </c>
       <c r="I45" t="n">
         <v>76.75987979576297</v>
@@ -30842,7 +30842,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>135.5063150747418</v>
       </c>
     </row>
     <row r="46">
@@ -30906,10 +30906,10 @@
         <v>193.8120369573057</v>
       </c>
       <c r="T46" t="n">
+        <v>193.5773019469924</v>
+      </c>
+      <c r="U46" t="n">
         <v>193.8120369573057</v>
-      </c>
-      <c r="U46" t="n">
-        <v>193.5773019469926</v>
       </c>
       <c r="V46" t="n">
         <v>193.8120369573057</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="L11" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="M11" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>115.6019335494106</v>
       </c>
       <c r="O11" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>115.601933549411</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>115.601933549411</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="N12" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="O12" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>115.6019335494106</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>115.6019335494105</v>
       </c>
       <c r="M14" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="N14" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="O14" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>115.601933549411</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="O15" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="P15" t="n">
-        <v>117.9483792117442</v>
+        <v>117.9483792117434</v>
       </c>
       <c r="Q15" t="n">
         <v>118.1229377207371</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K17" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>115.601933549411</v>
+        <v>10.19156274373719</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="P17" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>61.17766441239768</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>120.4693833830704</v>
+        <v>83.74303060941314</v>
       </c>
       <c r="P18" t="n">
-        <v>115.601933549411</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>118.1229377207371</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,22 +36124,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>120.4693833830704</v>
+        <v>54.4242691370129</v>
       </c>
       <c r="N20" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="O20" t="n">
-        <v>115.601933549411</v>
+        <v>120.46938338307</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>61.17766441239768</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>34.20534860233023</v>
       </c>
       <c r="K21" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>83.74303060941402</v>
+        <v>83.74303060941314</v>
       </c>
       <c r="O21" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Q21" t="n">
         <v>118.1229377207371</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="L23" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="M23" t="n">
-        <v>120.4693833830704</v>
+        <v>120.46938338307</v>
       </c>
       <c r="N23" t="n">
-        <v>115.601933549411</v>
+        <v>115.6019335494106</v>
       </c>
       <c r="O23" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36391,7 +36391,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.20534860233023</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>120.4693833830704</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>120.4693833830704</v>
+        <v>115.6019335494106</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>120.46938338307</v>
       </c>
       <c r="P24" t="n">
-        <v>81.39658494708075</v>
+        <v>120.46938338307</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>44.23270639327571</v>
+        <v>206.2782930408068</v>
       </c>
       <c r="K26" t="n">
-        <v>351.8506572146841</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L26" t="n">
-        <v>287.963992057187</v>
+        <v>450.0095787047181</v>
       </c>
       <c r="M26" t="n">
-        <v>497.8269659242494</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N26" t="n">
-        <v>487.5863455559649</v>
+        <v>487.5863455559651</v>
       </c>
       <c r="O26" t="n">
-        <v>422.8501997298188</v>
+        <v>422.850199729819</v>
       </c>
       <c r="P26" t="n">
-        <v>347.3243776943737</v>
+        <v>347.3243776943739</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.5832156364668</v>
+        <v>61.17766441239768</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.40555122406517</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>87.388718890966</v>
       </c>
       <c r="N28" t="n">
-        <v>90.50400431230184</v>
+        <v>185.3136356490886</v>
       </c>
       <c r="O28" t="n">
-        <v>230.1491714553716</v>
+        <v>230.1491714553718</v>
       </c>
       <c r="P28" t="n">
         <v>34.81733014751177</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.80963133678955</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>44.23270639327571</v>
+        <v>204.2638951428186</v>
       </c>
       <c r="K29" t="n">
-        <v>349.8362593166996</v>
+        <v>351.8506572146843</v>
       </c>
       <c r="L29" t="n">
-        <v>287.963992057187</v>
+        <v>450.0095787047181</v>
       </c>
       <c r="M29" t="n">
-        <v>497.8269659242494</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N29" t="n">
-        <v>487.5863455559649</v>
+        <v>325.540758908434</v>
       </c>
       <c r="O29" t="n">
-        <v>422.8501997298188</v>
+        <v>422.850199729819</v>
       </c>
       <c r="P29" t="n">
-        <v>185.2787910468427</v>
+        <v>347.3243776943739</v>
       </c>
       <c r="Q29" t="n">
-        <v>223.2232510599286</v>
+        <v>61.17766441239768</v>
       </c>
       <c r="R29" t="n">
-        <v>53.41994912205331</v>
+        <v>53.41994912205354</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>87.388718890966</v>
       </c>
       <c r="N31" t="n">
-        <v>90.50400431230184</v>
+        <v>252.549590959833</v>
       </c>
       <c r="O31" t="n">
         <v>68.10358480784066</v>
       </c>
       <c r="P31" t="n">
-        <v>189.5205173222696</v>
+        <v>34.81733014751177</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.1520308095626</v>
+        <v>94.80963133678679</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>206.2782930408067</v>
+        <v>206.2782930408068</v>
       </c>
       <c r="K32" t="n">
-        <v>351.8506572146841</v>
+        <v>189.8050705671532</v>
       </c>
       <c r="L32" t="n">
-        <v>450.0095787047179</v>
+        <v>450.0095787047181</v>
       </c>
       <c r="M32" t="n">
         <v>335.7813792767184</v>
       </c>
       <c r="N32" t="n">
-        <v>325.540758908434</v>
+        <v>487.5863455559651</v>
       </c>
       <c r="O32" t="n">
-        <v>422.8501997298188</v>
+        <v>420.8358018318307</v>
       </c>
       <c r="P32" t="n">
-        <v>347.3243776943737</v>
+        <v>347.3243776943739</v>
       </c>
       <c r="Q32" t="n">
         <v>61.17766441239768</v>
       </c>
       <c r="R32" t="n">
-        <v>51.40555122406931</v>
+        <v>53.41994912205354</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>72.73496299369151</v>
       </c>
       <c r="M34" t="n">
-        <v>87.388718890966</v>
+        <v>249.4343055384971</v>
       </c>
       <c r="N34" t="n">
         <v>90.50400431230184</v>
@@ -37242,10 +37242,10 @@
         <v>68.10358480784066</v>
       </c>
       <c r="P34" t="n">
-        <v>196.8629167950427</v>
+        <v>34.81733014751177</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.8096313367891</v>
+        <v>94.80963133678679</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.979171613601544</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>140.8784991536414</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K35" t="n">
         <v>189.8050705671532</v>
@@ -37318,16 +37318,16 @@
         <v>325.540758908434</v>
       </c>
       <c r="O35" t="n">
-        <v>454.6166500395935</v>
+        <v>451.6159768880824</v>
       </c>
       <c r="P35" t="n">
         <v>185.2787910468427</v>
       </c>
       <c r="Q35" t="n">
-        <v>61.17766441239768</v>
+        <v>254.9897013697034</v>
       </c>
       <c r="R35" t="n">
-        <v>85.18639943182811</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.652367408191111</v>
+        <v>4.652367408190214</v>
       </c>
       <c r="K36" t="n">
         <v>186.3468467195359</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.979171613601572</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>44.23270639327571</v>
@@ -37552,19 +37552,19 @@
         <v>335.7813792767184</v>
       </c>
       <c r="N38" t="n">
-        <v>325.540758908434</v>
+        <v>519.3527958657398</v>
       </c>
       <c r="O38" t="n">
         <v>260.8046130822878</v>
       </c>
       <c r="P38" t="n">
-        <v>281.9245838072083</v>
+        <v>376.0901548526369</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.9897013697034</v>
+        <v>61.17766441239768</v>
       </c>
       <c r="R38" t="n">
-        <v>85.18639943182814</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>417.4585004488437</v>
       </c>
       <c r="N39" t="n">
-        <v>414.5086783259901</v>
+        <v>444.0616595201292</v>
       </c>
       <c r="O39" t="n">
         <v>337.9185339807949</v>
@@ -37640,7 +37640,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q39" t="n">
-        <v>118.1229377207371</v>
+        <v>88.5699565265971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.979171613601544</v>
+        <v>8.979171613601629</v>
       </c>
       <c r="J41" t="n">
-        <v>238.0447433505814</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K41" t="n">
         <v>189.8050705671532</v>
@@ -37786,22 +37786,22 @@
         <v>287.963992057187</v>
       </c>
       <c r="M41" t="n">
-        <v>517.6135714689123</v>
+        <v>335.7813792767184</v>
       </c>
       <c r="N41" t="n">
         <v>325.540758908434</v>
       </c>
       <c r="O41" t="n">
-        <v>260.8046130822878</v>
+        <v>357.4504058426523</v>
       </c>
       <c r="P41" t="n">
         <v>185.2787910468427</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.17766441239768</v>
+        <v>254.9897013697035</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>85.18639943182819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.652367408191111</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K42" t="n">
         <v>186.3468467195359</v>
@@ -37877,7 +37877,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q42" t="n">
-        <v>118.1229377207371</v>
+        <v>88.5699565265971</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>235.0440701990711</v>
+        <v>44.23270639327571</v>
       </c>
       <c r="K44" t="n">
         <v>189.8050705671532</v>
       </c>
       <c r="L44" t="n">
-        <v>287.963992057187</v>
+        <v>481.7760290144927</v>
       </c>
       <c r="M44" t="n">
-        <v>335.7813792767184</v>
+        <v>524.0959930465109</v>
       </c>
       <c r="N44" t="n">
         <v>325.540758908434</v>
@@ -38032,10 +38032,10 @@
         <v>260.8046130822878</v>
       </c>
       <c r="P44" t="n">
-        <v>185.2787910468427</v>
+        <v>187.7755410828447</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.9897013697034</v>
+        <v>61.17766441239768</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.652367408191111</v>
+        <v>34.20534860233023</v>
       </c>
       <c r="K45" t="n">
         <v>186.3468467195359</v>
@@ -38114,7 +38114,7 @@
         <v>254.6169492077444</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.1229377207371</v>
+        <v>88.5699565265971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
